--- a/Exp2022/Протоколы наблюдений и описаний Лето 2022.xlsx
+++ b/Exp2022/Протоколы наблюдений и описаний Лето 2022.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Exp2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9270" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Touchtred_2022" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5663" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5830" uniqueCount="1019">
   <si>
     <t>Experiment</t>
   </si>
@@ -3089,17 +3094,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy\ h:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="170" formatCode="dd\.mm\.yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3134,152 +3135,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3292,194 +3149,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3487,251 +3158,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3747,8 +3176,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3758,78 +3187,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -3843,7 +3228,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Текстовое поле 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3890,7 +3275,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Эксперимент по выявлению количества биссусныз прикррелений направленного на особей своего и чужого вида мидий. </a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3902,7 +3286,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Experiment Эексперимент (первый эксперимент был в 2021 году)</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3910,7 +3293,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Date_of_Begin (Начало экспозиции)</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3918,7 +3300,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Date_of_End (конец экспозиции)</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3926,7 +3307,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Cage Садок</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3934,7 +3314,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Plate Пластина (в одном садке было несколько пластин)</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3942,7 +3321,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>ID - индивидуальный номер пары мидий</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3950,7 +3328,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Expected_Donor Предполагаемы морфотип донора</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3958,7 +3335,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>True_Donor  Морфотип донора после вскрытия</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3966,7 +3342,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Expected_Recipient Предпологаемый морфотип реципиента</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3974,7 +3349,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>True_Recipient Морфотип рецепиенат после вскрытия</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3982,7 +3356,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Byss_to_Substrate - Количество биссуссных нитей от донора к субстрату</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4010,7 +3383,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -4024,7 +3397,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Текстовое поле 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4073,7 +3446,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Учет пеллет фекалий улиток, собранных в мидиевых друзах и на свободном грунте.</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4085,7 +3457,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Sample - Сбор</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4093,7 +3464,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Well - ячейка в экспериментальной утановке</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4101,7 +3471,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Species = Вид улитки</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4125,7 +3494,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Улитка, прикрепленная биссуссом</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4133,7 +3501,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>N_pellets - количество пеллет через 1 сутки </a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4141,7 +3508,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Size - размер улитки</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4149,7 +3515,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Status - состояние улитки на момент аализа.</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4163,7 +3528,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -4177,7 +3542,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>160655</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Текстовое поле 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4356,9 +3721,6 @@
             </a:rPr>
             <a:t>сила прикрепления (Ньютоны), измеренная на отрыв с помощью динамометра</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4404,7 +3766,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -4418,7 +3780,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Текстовое поле 2"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4465,7 +3827,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Эксперимент по оценке количества иссусных бляшек, образуемых мидиями при воздействии на них химических сигналов от морских звезд.</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4473,7 +3834,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Cage  - садок</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4481,7 +3841,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Type - </a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4551,7 +3910,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>ID - индивидуальный номер </a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4559,7 +3917,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>N_bys_1 Число биссусных бляшек на бакпечатке</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4581,7 +3938,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Morphotype - Морфотип мидии</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4595,7 +3951,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4609,7 +3965,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Текстовое поле 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4658,7 +4014,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Количество мидий, съеденных морскими звездами</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4668,7 +4023,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4682,7 +4037,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Текстовое поле 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4739,7 +4094,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>на илисто-песчаном пляже в куту Южной губы.</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4747,7 +4101,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Lat Широта (минуты) при 67 градусе</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4755,7 +4108,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Lon Долгота (минуты) при 32 градусе</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4763,7 +4115,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>N Число креветок в драге</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4771,7 +4122,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Date - Дата</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4783,7 +4133,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t>Учет производился методом протяжки драги по дну (под водой) на стандартное расстояние 5м. Ширина рамы драги 0.38 м.</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4801,7 +4150,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -4815,7 +4164,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Текстовое поле 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4868,7 +4217,6 @@
             <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
             <a:t>Laminaria</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ru-RU" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4892,7 +4240,6 @@
             <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
             <a:t> - ширина ризоида</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4944,7 +4291,6 @@
             <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
             <a:t>O.robusta</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ru-RU" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4960,7 +4306,6 @@
             <a:rPr lang="en-US" altLang="ru-RU" sz="1100"/>
             <a:t>O. aculeata</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5221,32 +4566,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L213"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="16.5740740740741" customWidth="1"/>
-    <col min="7" max="7" width="15.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="11.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="18.712962962963" customWidth="1"/>
-    <col min="10" max="10" width="14.4259259259259" customWidth="1"/>
-    <col min="11" max="11" width="17.5740740740741" customWidth="1"/>
-    <col min="12" max="12" width="17.4259259259259" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -9355,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C109" s="14">
         <v>44785.5</v>
@@ -9393,7 +8737,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C110" s="14">
         <v>44785.5</v>
@@ -9431,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C111" s="14">
         <v>44785.5</v>
@@ -9469,7 +8813,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C112" s="14">
         <v>44785.5</v>
@@ -9507,7 +8851,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C113" s="14">
         <v>44785.5</v>
@@ -9545,7 +8889,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C114" s="14">
         <v>44787.6875</v>
@@ -9583,7 +8927,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C115" s="14">
         <v>44787.6875</v>
@@ -9621,7 +8965,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C116" s="14">
         <v>44787.6875</v>
@@ -9659,7 +9003,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C117" s="14">
         <v>44787.6875</v>
@@ -9697,7 +9041,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C118" s="14">
         <v>44787.6875</v>
@@ -9735,7 +9079,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C119" s="14">
         <v>44787.6875</v>
@@ -9773,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C120" s="14">
         <v>44787.6875</v>
@@ -9811,7 +9155,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C121" s="14">
         <v>44787.6875</v>
@@ -9849,7 +9193,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C122" s="14">
         <v>44787.6875</v>
@@ -9887,7 +9231,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C123" s="14">
         <v>44787.6875</v>
@@ -9925,7 +9269,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C124" s="14">
         <v>44787.6875</v>
@@ -9963,7 +9307,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C125" s="14">
         <v>44787.6875</v>
@@ -10001,7 +9345,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C126" s="14">
         <v>44787.6875</v>
@@ -10039,7 +9383,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C127" s="14">
         <v>44787.6875</v>
@@ -10077,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C128" s="14">
         <v>44787.6875</v>
@@ -10115,7 +9459,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C129" s="14">
         <v>44787.6875</v>
@@ -10153,7 +9497,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C130" s="14">
         <v>44787.6875</v>
@@ -10191,7 +9535,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C131" s="14">
         <v>44787.6875</v>
@@ -10229,7 +9573,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C132" s="14">
         <v>44787.6875</v>
@@ -10267,7 +9611,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C133" s="14">
         <v>44787.6875</v>
@@ -10305,7 +9649,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C134" s="14">
         <v>44788.5</v>
@@ -10343,7 +9687,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C135" s="14">
         <v>44788.5</v>
@@ -10381,7 +9725,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C136" s="14">
         <v>44788.5</v>
@@ -10419,7 +9763,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C137" s="14">
         <v>44788.5</v>
@@ -10457,7 +9801,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C138" s="14">
         <v>44788.5</v>
@@ -10495,7 +9839,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C139" s="14">
         <v>44788.5</v>
@@ -10533,7 +9877,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C140" s="14">
         <v>44788.5</v>
@@ -10571,7 +9915,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C141" s="14">
         <v>44788.5</v>
@@ -10609,7 +9953,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C142" s="14">
         <v>44788.5</v>
@@ -10647,7 +9991,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C143" s="14">
         <v>44788.5</v>
@@ -10685,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C144" s="14">
         <v>44788.5</v>
@@ -10723,7 +10067,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C145" s="14">
         <v>44788.5</v>
@@ -10761,7 +10105,7 @@
         <v>3</v>
       </c>
       <c r="B146" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C146" s="14">
         <v>44788.5</v>
@@ -10799,7 +10143,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C147" s="14">
         <v>44788.5</v>
@@ -10837,7 +10181,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C148" s="14">
         <v>44788.5</v>
@@ -10875,7 +10219,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C149" s="14">
         <v>44788.5</v>
@@ -10913,7 +10257,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C150" s="14">
         <v>44788.5</v>
@@ -10951,7 +10295,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C151" s="14">
         <v>44788.5</v>
@@ -10989,7 +10333,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C152" s="14">
         <v>44788.5</v>
@@ -11027,7 +10371,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C153" s="14">
         <v>44788.5</v>
@@ -11065,10 +10409,10 @@
         <v>3</v>
       </c>
       <c r="B154" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C154" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D154">
         <v>4</v>
@@ -11103,10 +10447,10 @@
         <v>3</v>
       </c>
       <c r="B155" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C155" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D155">
         <v>4</v>
@@ -11141,10 +10485,10 @@
         <v>3</v>
       </c>
       <c r="B156" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C156" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D156">
         <v>4</v>
@@ -11179,10 +10523,10 @@
         <v>3</v>
       </c>
       <c r="B157" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C157" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D157">
         <v>4</v>
@@ -11217,10 +10561,10 @@
         <v>3</v>
       </c>
       <c r="B158" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C158" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D158">
         <v>4</v>
@@ -11255,10 +10599,10 @@
         <v>3</v>
       </c>
       <c r="B159" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C159" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D159">
         <v>4</v>
@@ -11293,10 +10637,10 @@
         <v>3</v>
       </c>
       <c r="B160" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C160" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D160">
         <v>4</v>
@@ -11331,10 +10675,10 @@
         <v>3</v>
       </c>
       <c r="B161" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C161" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D161">
         <v>4</v>
@@ -11369,10 +10713,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C162" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D162">
         <v>4</v>
@@ -11407,10 +10751,10 @@
         <v>3</v>
       </c>
       <c r="B163" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C163" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -11445,10 +10789,10 @@
         <v>3</v>
       </c>
       <c r="B164" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C164" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D164">
         <v>4</v>
@@ -11483,10 +10827,10 @@
         <v>3</v>
       </c>
       <c r="B165" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C165" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -11521,10 +10865,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C166" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D166">
         <v>4</v>
@@ -11559,10 +10903,10 @@
         <v>3</v>
       </c>
       <c r="B167" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C167" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -11597,10 +10941,10 @@
         <v>3</v>
       </c>
       <c r="B168" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C168" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D168">
         <v>4</v>
@@ -11635,10 +10979,10 @@
         <v>3</v>
       </c>
       <c r="B169" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C169" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -11673,10 +11017,10 @@
         <v>3</v>
       </c>
       <c r="B170" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C170" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -11711,10 +11055,10 @@
         <v>3</v>
       </c>
       <c r="B171" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C171" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D171">
         <v>4</v>
@@ -11749,10 +11093,10 @@
         <v>3</v>
       </c>
       <c r="B172" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C172" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D172">
         <v>4</v>
@@ -11787,10 +11131,10 @@
         <v>3</v>
       </c>
       <c r="B173" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C173" s="14">
-        <v>44788.6666666667</v>
+        <v>44788.666666666701</v>
       </c>
       <c r="D173">
         <v>4</v>
@@ -11825,10 +11169,10 @@
         <v>3</v>
       </c>
       <c r="B174" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C174" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D174">
         <v>5</v>
@@ -11863,10 +11207,10 @@
         <v>3</v>
       </c>
       <c r="B175" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C175" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D175">
         <v>5</v>
@@ -11901,10 +11245,10 @@
         <v>3</v>
       </c>
       <c r="B176" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C176" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -11939,10 +11283,10 @@
         <v>3</v>
       </c>
       <c r="B177" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C177" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -11977,10 +11321,10 @@
         <v>3</v>
       </c>
       <c r="B178" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C178" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D178">
         <v>5</v>
@@ -12015,10 +11359,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C179" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D179">
         <v>5</v>
@@ -12053,10 +11397,10 @@
         <v>3</v>
       </c>
       <c r="B180" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C180" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D180">
         <v>5</v>
@@ -12091,10 +11435,10 @@
         <v>3</v>
       </c>
       <c r="B181" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C181" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D181">
         <v>5</v>
@@ -12129,10 +11473,10 @@
         <v>3</v>
       </c>
       <c r="B182" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C182" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D182">
         <v>5</v>
@@ -12167,10 +11511,10 @@
         <v>3</v>
       </c>
       <c r="B183" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C183" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D183">
         <v>5</v>
@@ -12205,10 +11549,10 @@
         <v>3</v>
       </c>
       <c r="B184" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C184" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D184">
         <v>5</v>
@@ -12243,10 +11587,10 @@
         <v>3</v>
       </c>
       <c r="B185" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C185" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D185">
         <v>5</v>
@@ -12281,10 +11625,10 @@
         <v>3</v>
       </c>
       <c r="B186" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C186" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -12319,10 +11663,10 @@
         <v>3</v>
       </c>
       <c r="B187" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C187" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D187">
         <v>5</v>
@@ -12357,10 +11701,10 @@
         <v>3</v>
       </c>
       <c r="B188" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C188" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D188">
         <v>5</v>
@@ -12395,10 +11739,10 @@
         <v>3</v>
       </c>
       <c r="B189" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C189" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D189">
         <v>5</v>
@@ -12433,10 +11777,10 @@
         <v>3</v>
       </c>
       <c r="B190" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C190" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -12471,10 +11815,10 @@
         <v>3</v>
       </c>
       <c r="B191" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C191" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D191">
         <v>5</v>
@@ -12509,10 +11853,10 @@
         <v>3</v>
       </c>
       <c r="B192" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C192" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D192">
         <v>5</v>
@@ -12547,10 +11891,10 @@
         <v>3</v>
       </c>
       <c r="B193" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C193" s="14">
-        <v>44788.7916666667</v>
+        <v>44788.791666666701</v>
       </c>
       <c r="D193">
         <v>5</v>
@@ -12585,10 +11929,10 @@
         <v>3</v>
       </c>
       <c r="B194" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C194" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D194">
         <v>6</v>
@@ -12623,10 +11967,10 @@
         <v>3</v>
       </c>
       <c r="B195" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C195" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D195">
         <v>6</v>
@@ -12661,10 +12005,10 @@
         <v>3</v>
       </c>
       <c r="B196" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C196" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D196">
         <v>6</v>
@@ -12699,10 +12043,10 @@
         <v>3</v>
       </c>
       <c r="B197" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C197" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D197">
         <v>6</v>
@@ -12737,10 +12081,10 @@
         <v>3</v>
       </c>
       <c r="B198" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C198" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D198">
         <v>6</v>
@@ -12775,10 +12119,10 @@
         <v>3</v>
       </c>
       <c r="B199" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C199" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D199">
         <v>6</v>
@@ -12813,10 +12157,10 @@
         <v>3</v>
       </c>
       <c r="B200" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C200" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D200">
         <v>6</v>
@@ -12851,10 +12195,10 @@
         <v>3</v>
       </c>
       <c r="B201" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C201" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D201">
         <v>6</v>
@@ -12889,10 +12233,10 @@
         <v>3</v>
       </c>
       <c r="B202" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C202" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D202">
         <v>6</v>
@@ -12927,10 +12271,10 @@
         <v>3</v>
       </c>
       <c r="B203" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C203" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D203">
         <v>6</v>
@@ -12965,10 +12309,10 @@
         <v>3</v>
       </c>
       <c r="B204" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C204" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D204">
         <v>6</v>
@@ -13003,10 +12347,10 @@
         <v>3</v>
       </c>
       <c r="B205" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C205" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D205">
         <v>6</v>
@@ -13041,10 +12385,10 @@
         <v>3</v>
       </c>
       <c r="B206" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C206" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D206">
         <v>6</v>
@@ -13079,10 +12423,10 @@
         <v>3</v>
       </c>
       <c r="B207" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C207" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -13117,10 +12461,10 @@
         <v>3</v>
       </c>
       <c r="B208" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C208" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D208">
         <v>6</v>
@@ -13155,10 +12499,10 @@
         <v>3</v>
       </c>
       <c r="B209" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C209" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D209">
         <v>6</v>
@@ -13193,10 +12537,10 @@
         <v>3</v>
       </c>
       <c r="B210" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C210" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D210">
         <v>6</v>
@@ -13231,10 +12575,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C211" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D211">
         <v>6</v>
@@ -13269,10 +12613,10 @@
         <v>3</v>
       </c>
       <c r="B212" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C212" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D212">
         <v>6</v>
@@ -13307,10 +12651,10 @@
         <v>3</v>
       </c>
       <c r="B213" s="14">
-        <v>44780.9166666667</v>
+        <v>44780.916666666701</v>
       </c>
       <c r="C213" s="14">
-        <v>44789.4166666667</v>
+        <v>44789.416666666701</v>
       </c>
       <c r="D213">
         <v>6</v>
@@ -13342,25 +12686,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.712962962963" customWidth="1"/>
-    <col min="8" max="8" width="16.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="12.8518518518519" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -13392,7 +12734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -13415,7 +12757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -13438,7 +12780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -13461,7 +12803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -13484,7 +12826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -13507,7 +12849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -13530,7 +12872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -13553,7 +12895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -13576,7 +12918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -13599,7 +12941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -13622,7 +12964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -13645,7 +12987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -13668,7 +13010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -13691,7 +13033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -13714,7 +13056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -14841,7 +14183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -14864,7 +14206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -14887,7 +14229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -14910,7 +14252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -14933,7 +14275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -14956,7 +14298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -14979,7 +14321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -15002,7 +14344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -15129,7 +14471,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>28</v>
@@ -15970,7 +15312,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>28</v>
@@ -16028,7 +15370,7 @@
         <v>7</v>
       </c>
       <c r="F107" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>28</v>
@@ -16115,7 +15457,7 @@
         <v>4</v>
       </c>
       <c r="F110" s="9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>28</v>
@@ -17637,28 +16979,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.287037037037" style="6" customWidth="1"/>
-    <col min="2" max="5" width="8.85185185185185" style="6"/>
+    <col min="1" max="1" width="10.28515625" style="6" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="6"/>
     <col min="6" max="6" width="12" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.85185185185185" style="6"/>
+    <col min="7" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -24378,27 +23717,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F292">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F292"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -24428,7 +23762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -24447,8 +23781,11 @@
       <c r="F2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -24467,8 +23804,11 @@
       <c r="F3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -24487,8 +23827,11 @@
       <c r="F4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -24507,8 +23850,11 @@
       <c r="F5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -24527,8 +23873,11 @@
       <c r="F6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -24547,8 +23896,11 @@
       <c r="F7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -24567,8 +23919,11 @@
       <c r="F8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -24587,8 +23942,11 @@
       <c r="F9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -24607,8 +23965,11 @@
       <c r="F10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -24627,8 +23988,11 @@
       <c r="F11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -24647,8 +24011,11 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -24667,8 +24034,11 @@
       <c r="F13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -24687,8 +24057,11 @@
       <c r="F14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -24707,8 +24080,11 @@
       <c r="F15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>317</v>
       </c>
@@ -24727,8 +24103,11 @@
       <c r="F16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -24747,8 +24126,11 @@
       <c r="F17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -24767,8 +24149,11 @@
       <c r="F18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>317</v>
       </c>
@@ -24787,8 +24172,11 @@
       <c r="F19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>317</v>
       </c>
@@ -24807,8 +24195,11 @@
       <c r="F20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>317</v>
       </c>
@@ -24827,8 +24218,11 @@
       <c r="F21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>317</v>
       </c>
@@ -24847,8 +24241,11 @@
       <c r="F22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>317</v>
       </c>
@@ -24867,8 +24264,11 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -24887,8 +24287,11 @@
       <c r="F24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>317</v>
       </c>
@@ -24907,8 +24310,11 @@
       <c r="F25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -24927,8 +24333,11 @@
       <c r="F26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -24947,8 +24356,11 @@
       <c r="F27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -24967,8 +24379,11 @@
       <c r="F28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -24987,8 +24402,11 @@
       <c r="F29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>390</v>
       </c>
@@ -25007,8 +24425,11 @@
       <c r="F30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>390</v>
       </c>
@@ -25027,8 +24448,11 @@
       <c r="F31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>390</v>
       </c>
@@ -25047,8 +24471,11 @@
       <c r="F32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>390</v>
       </c>
@@ -25067,8 +24494,11 @@
       <c r="F33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>390</v>
       </c>
@@ -25087,8 +24517,11 @@
       <c r="F34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>390</v>
       </c>
@@ -25107,8 +24540,11 @@
       <c r="F35" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>390</v>
       </c>
@@ -25127,8 +24563,11 @@
       <c r="F36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>390</v>
       </c>
@@ -25147,8 +24586,11 @@
       <c r="F37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>390</v>
       </c>
@@ -25167,8 +24609,11 @@
       <c r="F38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>390</v>
       </c>
@@ -25187,8 +24632,11 @@
       <c r="F39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>390</v>
       </c>
@@ -25207,8 +24655,11 @@
       <c r="F40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>390</v>
       </c>
@@ -25227,8 +24678,11 @@
       <c r="F41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>390</v>
       </c>
@@ -25247,8 +24701,11 @@
       <c r="F42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>390</v>
       </c>
@@ -25267,8 +24724,11 @@
       <c r="F43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>496</v>
       </c>
@@ -25287,8 +24747,11 @@
       <c r="F44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>496</v>
       </c>
@@ -25307,8 +24770,11 @@
       <c r="F45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>496</v>
       </c>
@@ -25327,8 +24793,11 @@
       <c r="F46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>496</v>
       </c>
@@ -25347,8 +24816,11 @@
       <c r="F47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -25367,8 +24839,11 @@
       <c r="F48" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>496</v>
       </c>
@@ -25387,8 +24862,11 @@
       <c r="F49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>496</v>
       </c>
@@ -25407,8 +24885,11 @@
       <c r="F50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>496</v>
       </c>
@@ -25427,8 +24908,11 @@
       <c r="F51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>496</v>
       </c>
@@ -25447,8 +24931,11 @@
       <c r="F52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>496</v>
       </c>
@@ -25467,8 +24954,11 @@
       <c r="F53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>496</v>
       </c>
@@ -25487,8 +24977,11 @@
       <c r="F54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>496</v>
       </c>
@@ -25507,8 +25000,11 @@
       <c r="F55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>496</v>
       </c>
@@ -25527,8 +25023,11 @@
       <c r="F56" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>496</v>
       </c>
@@ -25547,8 +25046,11 @@
       <c r="F57" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>250</v>
       </c>
@@ -25567,8 +25069,11 @@
       <c r="F58" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>250</v>
       </c>
@@ -25587,8 +25092,11 @@
       <c r="F59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>250</v>
       </c>
@@ -25607,8 +25115,11 @@
       <c r="F60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>250</v>
       </c>
@@ -25627,8 +25138,11 @@
       <c r="F61" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -25647,8 +25161,11 @@
       <c r="F62" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>250</v>
       </c>
@@ -25667,8 +25184,11 @@
       <c r="F63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -25687,8 +25207,11 @@
       <c r="F64" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -25707,8 +25230,11 @@
       <c r="F65" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>250</v>
       </c>
@@ -25727,8 +25253,11 @@
       <c r="F66" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>250</v>
       </c>
@@ -25747,8 +25276,11 @@
       <c r="F67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>250</v>
       </c>
@@ -25767,8 +25299,11 @@
       <c r="F68" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>250</v>
       </c>
@@ -25787,8 +25322,11 @@
       <c r="F69" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>250</v>
       </c>
@@ -25807,8 +25345,11 @@
       <c r="F70" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>250</v>
       </c>
@@ -25827,8 +25368,11 @@
       <c r="F71" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -25847,8 +25391,11 @@
       <c r="F72" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -25867,8 +25414,11 @@
       <c r="F73" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -25887,8 +25437,11 @@
       <c r="F74" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -25907,8 +25460,11 @@
       <c r="F75" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -25927,8 +25483,11 @@
       <c r="F76" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -25947,8 +25506,11 @@
       <c r="F77" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -25967,8 +25529,11 @@
       <c r="F78" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -25987,8 +25552,11 @@
       <c r="F79" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -26007,8 +25575,11 @@
       <c r="F80" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -26027,8 +25598,11 @@
       <c r="F81" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -26047,8 +25621,11 @@
       <c r="F82" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -26067,8 +25644,11 @@
       <c r="F83" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -26087,8 +25667,11 @@
       <c r="F84" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -26107,8 +25690,11 @@
       <c r="F85" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -26127,8 +25713,11 @@
       <c r="F86" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>140</v>
       </c>
@@ -26147,8 +25736,11 @@
       <c r="F87" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -26167,8 +25759,11 @@
       <c r="F88" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -26187,8 +25782,11 @@
       <c r="F89" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>140</v>
       </c>
@@ -26207,8 +25805,11 @@
       <c r="F90" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -26227,8 +25828,11 @@
       <c r="F91" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -26247,8 +25851,11 @@
       <c r="F92" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -26267,8 +25874,11 @@
       <c r="F93" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -26287,8 +25897,11 @@
       <c r="F94" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -26307,8 +25920,11 @@
       <c r="F95" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>140</v>
       </c>
@@ -26327,8 +25943,11 @@
       <c r="F96" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -26347,8 +25966,11 @@
       <c r="F97" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>140</v>
       </c>
@@ -26367,8 +25989,11 @@
       <c r="F98" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>140</v>
       </c>
@@ -26387,8 +26012,11 @@
       <c r="F99" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>432</v>
       </c>
@@ -26407,8 +26035,11 @@
       <c r="F100" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>432</v>
       </c>
@@ -26427,8 +26058,11 @@
       <c r="F101" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>432</v>
       </c>
@@ -26447,8 +26081,11 @@
       <c r="F102" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>432</v>
       </c>
@@ -26467,8 +26104,11 @@
       <c r="F103" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>432</v>
       </c>
@@ -26487,8 +26127,11 @@
       <c r="F104" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>432</v>
       </c>
@@ -26507,8 +26150,11 @@
       <c r="F105" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>432</v>
       </c>
@@ -26527,8 +26173,11 @@
       <c r="F106" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>432</v>
       </c>
@@ -26547,8 +26196,11 @@
       <c r="F107" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>432</v>
       </c>
@@ -26567,8 +26219,11 @@
       <c r="F108" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>432</v>
       </c>
@@ -26587,8 +26242,11 @@
       <c r="F109" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>432</v>
       </c>
@@ -26607,8 +26265,11 @@
       <c r="F110" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>432</v>
       </c>
@@ -26627,8 +26288,11 @@
       <c r="F111" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>432</v>
       </c>
@@ -26647,8 +26311,11 @@
       <c r="F112" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>432</v>
       </c>
@@ -26667,8 +26334,11 @@
       <c r="F113" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>50</v>
       </c>
@@ -26687,8 +26357,11 @@
       <c r="F114" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>50</v>
       </c>
@@ -26707,8 +26380,11 @@
       <c r="F115" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -26727,8 +26403,11 @@
       <c r="F116" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>50</v>
       </c>
@@ -26747,8 +26426,11 @@
       <c r="F117" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>50</v>
       </c>
@@ -26767,8 +26449,11 @@
       <c r="F118" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -26787,8 +26472,11 @@
       <c r="F119" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>50</v>
       </c>
@@ -26807,8 +26495,11 @@
       <c r="F120" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>50</v>
       </c>
@@ -26827,8 +26518,11 @@
       <c r="F121" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -26847,8 +26541,11 @@
       <c r="F122" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -26867,8 +26564,11 @@
       <c r="F123" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>50</v>
       </c>
@@ -26887,8 +26587,11 @@
       <c r="F124" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -26907,8 +26610,11 @@
       <c r="F125" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>50</v>
       </c>
@@ -26927,8 +26633,11 @@
       <c r="F126" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>50</v>
       </c>
@@ -26947,8 +26656,11 @@
       <c r="F127" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>356</v>
       </c>
@@ -26967,8 +26679,11 @@
       <c r="F128" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>356</v>
       </c>
@@ -26987,8 +26702,11 @@
       <c r="F129" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -27007,8 +26725,11 @@
       <c r="F130" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>356</v>
       </c>
@@ -27027,8 +26748,11 @@
       <c r="F131" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>356</v>
       </c>
@@ -27047,8 +26771,11 @@
       <c r="F132" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>356</v>
       </c>
@@ -27067,8 +26794,11 @@
       <c r="F133" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>356</v>
       </c>
@@ -27087,8 +26817,11 @@
       <c r="F134" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>356</v>
       </c>
@@ -27107,8 +26840,11 @@
       <c r="F135" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>356</v>
       </c>
@@ -27127,8 +26863,11 @@
       <c r="F136" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>356</v>
       </c>
@@ -27147,8 +26886,11 @@
       <c r="F137" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>356</v>
       </c>
@@ -27167,8 +26909,11 @@
       <c r="F138" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>356</v>
       </c>
@@ -27187,8 +26932,11 @@
       <c r="F139" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>356</v>
       </c>
@@ -27196,7 +26944,7 @@
         <v>49</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D140">
         <v>77</v>
@@ -27207,8 +26955,11 @@
       <c r="F140" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>356</v>
       </c>
@@ -27227,8 +26978,11 @@
       <c r="F141" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>459</v>
       </c>
@@ -27247,8 +27001,11 @@
       <c r="F142" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>459</v>
       </c>
@@ -27267,8 +27024,11 @@
       <c r="F143" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>459</v>
       </c>
@@ -27287,8 +27047,11 @@
       <c r="F144" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>459</v>
       </c>
@@ -27307,8 +27070,11 @@
       <c r="F145" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>459</v>
       </c>
@@ -27327,8 +27093,11 @@
       <c r="F146" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>459</v>
       </c>
@@ -27347,8 +27116,11 @@
       <c r="F147" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>459</v>
       </c>
@@ -27367,8 +27139,11 @@
       <c r="F148" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>459</v>
       </c>
@@ -27387,8 +27162,11 @@
       <c r="F149" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>459</v>
       </c>
@@ -27407,8 +27185,11 @@
       <c r="F150" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>459</v>
       </c>
@@ -27427,8 +27208,11 @@
       <c r="F151" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>459</v>
       </c>
@@ -27447,8 +27231,11 @@
       <c r="F152" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -27467,8 +27254,11 @@
       <c r="F153" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>459</v>
       </c>
@@ -27487,8 +27277,11 @@
       <c r="F154" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>289</v>
       </c>
@@ -27507,8 +27300,11 @@
       <c r="F155" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -27527,8 +27323,11 @@
       <c r="F156" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>289</v>
       </c>
@@ -27547,8 +27346,11 @@
       <c r="F157" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>289</v>
       </c>
@@ -27567,8 +27369,11 @@
       <c r="F158" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>289</v>
       </c>
@@ -27587,8 +27392,11 @@
       <c r="F159" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -27607,8 +27415,11 @@
       <c r="F160" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>289</v>
       </c>
@@ -27627,8 +27438,11 @@
       <c r="F161" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>289</v>
       </c>
@@ -27647,8 +27461,11 @@
       <c r="F162" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>289</v>
       </c>
@@ -27667,8 +27484,11 @@
       <c r="F163" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>289</v>
       </c>
@@ -27687,8 +27507,11 @@
       <c r="F164" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>289</v>
       </c>
@@ -27707,8 +27530,11 @@
       <c r="F165" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>289</v>
       </c>
@@ -27727,8 +27553,11 @@
       <c r="F166" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>289</v>
       </c>
@@ -27747,8 +27576,11 @@
       <c r="F167" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>289</v>
       </c>
@@ -27767,27 +27599,26 @@
       <c r="F168" t="s">
         <v>51</v>
       </c>
+      <c r="G168" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F168">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F168"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -27895,21 +27726,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="9" style="4"/>
     <col min="5" max="5" width="27" style="4" customWidth="1"/>
@@ -27941,7 +27770,7 @@
         <v>0.499</v>
       </c>
       <c r="C2" s="7">
-        <v>34.407</v>
+        <v>34.406999999999996</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -27955,7 +27784,7 @@
         <v>538</v>
       </c>
       <c r="B3" s="7">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C3" s="7">
         <v>34.387</v>
@@ -27972,10 +27801,10 @@
         <v>539</v>
       </c>
       <c r="B4" s="7">
-        <v>0.489</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C4" s="7">
-        <v>34.373</v>
+        <v>34.372999999999998</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -27989,10 +27818,10 @@
         <v>540</v>
       </c>
       <c r="B5" s="7">
-        <v>0.478</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C5" s="7">
-        <v>34.361</v>
+        <v>34.360999999999997</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -28006,10 +27835,10 @@
         <v>541</v>
       </c>
       <c r="B6" s="7">
-        <v>0.481</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="C6" s="7">
-        <v>34.329</v>
+        <v>34.329000000000001</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -28040,10 +27869,10 @@
         <v>543</v>
       </c>
       <c r="B8" s="7">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="C8" s="7">
-        <v>34.301</v>
+        <v>34.301000000000002</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -28057,10 +27886,10 @@
         <v>544</v>
       </c>
       <c r="B9" s="7">
-        <v>0.462</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="C9" s="7">
-        <v>34.279</v>
+        <v>34.279000000000003</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -28074,10 +27903,10 @@
         <v>545</v>
       </c>
       <c r="B10" s="7">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="C10" s="7">
-        <v>34.271</v>
+        <v>34.271000000000001</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -28091,7 +27920,7 @@
         <v>546</v>
       </c>
       <c r="B11" s="7">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="C11" s="7">
         <v>34.256</v>
@@ -28111,7 +27940,7 @@
         <v>0.438</v>
       </c>
       <c r="C12" s="7">
-        <v>34.251</v>
+        <v>34.250999999999998</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -28125,10 +27954,10 @@
         <v>548</v>
       </c>
       <c r="B13" s="7">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C13" s="7">
-        <v>34.246</v>
+        <v>34.246000000000002</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -28142,10 +27971,10 @@
         <v>549</v>
       </c>
       <c r="B14" s="7">
-        <v>0.407</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="C14" s="7">
-        <v>34.249</v>
+        <v>34.249000000000002</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -28159,7 +27988,7 @@
         <v>550</v>
       </c>
       <c r="B15" s="7">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C15" s="7">
         <v>34.259</v>
@@ -28179,7 +28008,7 @@
         <v>0.371</v>
       </c>
       <c r="C16" s="7">
-        <v>34.303</v>
+        <v>34.302999999999997</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -28196,7 +28025,7 @@
         <v>0.498</v>
       </c>
       <c r="C17" s="7">
-        <v>34.403</v>
+        <v>34.402999999999999</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -28213,7 +28042,7 @@
         <v>0.504</v>
       </c>
       <c r="C18" s="7">
-        <v>34.429</v>
+        <v>34.429000000000002</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -28227,7 +28056,7 @@
         <v>554</v>
       </c>
       <c r="B19" s="7">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C19" s="7">
         <v>34.47</v>
@@ -28244,10 +28073,10 @@
         <v>555</v>
       </c>
       <c r="B20" s="7">
-        <v>0.472</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="C20" s="7">
-        <v>34.478</v>
+        <v>34.478000000000002</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -28261,10 +28090,10 @@
         <v>556</v>
       </c>
       <c r="B21" s="7">
-        <v>0.465</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C21" s="7">
-        <v>34.486</v>
+        <v>34.485999999999997</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -28278,10 +28107,10 @@
         <v>557</v>
       </c>
       <c r="B22" s="7">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="C22" s="7">
-        <v>34.486</v>
+        <v>34.485999999999997</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -28295,10 +28124,10 @@
         <v>558</v>
       </c>
       <c r="B23" s="7">
-        <v>0.492</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="C23" s="7">
-        <v>34.468</v>
+        <v>34.468000000000004</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -28315,7 +28144,7 @@
         <v>0.503</v>
       </c>
       <c r="C24" s="7">
-        <v>34.425</v>
+        <v>34.424999999999997</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -28332,7 +28161,7 @@
         <v>0.503</v>
       </c>
       <c r="C25" s="7">
-        <v>34.416</v>
+        <v>34.415999999999997</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -28349,7 +28178,7 @@
         <v>0.496</v>
       </c>
       <c r="C26" s="7">
-        <v>34.397</v>
+        <v>34.396999999999998</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -28363,7 +28192,7 @@
         <v>562</v>
       </c>
       <c r="B27" s="7">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C27" s="7">
         <v>34.387</v>
@@ -28397,10 +28226,10 @@
         <v>564</v>
       </c>
       <c r="B29" s="7">
-        <v>0.487</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="C29" s="7">
-        <v>34.361</v>
+        <v>34.360999999999997</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -28414,10 +28243,10 @@
         <v>565</v>
       </c>
       <c r="B30" s="7">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="C30" s="7">
-        <v>34.334</v>
+        <v>34.334000000000003</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -28431,10 +28260,10 @@
         <v>566</v>
       </c>
       <c r="B31" s="7">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C31" s="7">
-        <v>34.418</v>
+        <v>34.417999999999999</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -28448,10 +28277,10 @@
         <v>567</v>
       </c>
       <c r="B32" s="7">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="C32" s="7">
-        <v>34.295</v>
+        <v>34.295000000000002</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
@@ -28465,10 +28294,10 @@
         <v>568</v>
       </c>
       <c r="B33" s="7">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="C33" s="7">
-        <v>34.272</v>
+        <v>34.271999999999998</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -28482,10 +28311,10 @@
         <v>569</v>
       </c>
       <c r="B34" s="7">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="C34" s="7">
-        <v>34.206</v>
+        <v>34.206000000000003</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -28499,10 +28328,10 @@
         <v>570</v>
       </c>
       <c r="B35" s="7">
-        <v>0.431</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C35" s="7">
-        <v>34.242</v>
+        <v>34.241999999999997</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -28516,7 +28345,7 @@
         <v>571</v>
       </c>
       <c r="B36" s="7">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="C36" s="7">
         <v>34.247</v>
@@ -28533,10 +28362,10 @@
         <v>572</v>
       </c>
       <c r="B37" s="7">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C37" s="7">
-        <v>34.248</v>
+        <v>34.247999999999998</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -28550,10 +28379,10 @@
         <v>573</v>
       </c>
       <c r="B38" s="7">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="C38" s="7">
-        <v>34.263</v>
+        <v>34.262999999999998</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -28570,7 +28399,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="7">
-        <v>34.288</v>
+        <v>34.287999999999997</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -28587,7 +28416,7 @@
         <v>0.373</v>
       </c>
       <c r="C40" s="7">
-        <v>34.287</v>
+        <v>34.286999999999999</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -28601,10 +28430,10 @@
         <v>576</v>
       </c>
       <c r="B41" s="7">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="C41" s="7">
-        <v>34.316</v>
+        <v>34.316000000000003</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -28614,29 +28443,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E41"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="12.4259259259259" customWidth="1"/>
-    <col min="4" max="4" width="15.4259259259259" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -29159,22 +28984,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="15.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -29217,7 +29040,7 @@
         <v>4.7</v>
       </c>
       <c r="E2" s="5">
-        <v>27.255</v>
+        <v>27.254999999999999</v>
       </c>
       <c r="F2" s="5">
         <v>11.164</v>
@@ -29234,7 +29057,7 @@
         <v>681</v>
       </c>
       <c r="B3" s="5">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C3" s="5">
         <v>6.9</v>
@@ -29243,7 +29066,7 @@
         <v>5.7</v>
       </c>
       <c r="E3" s="5">
-        <v>15.764</v>
+        <v>15.763999999999999</v>
       </c>
       <c r="F3" s="5">
         <v>9.718</v>
@@ -29260,7 +29083,7 @@
         <v>682</v>
       </c>
       <c r="B4" s="5">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C4" s="5">
         <v>7.5</v>
@@ -29272,7 +29095,7 @@
         <v>18.596</v>
       </c>
       <c r="F4" s="5">
-        <v>0.815</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -29289,16 +29112,16 @@
         <v>13.3</v>
       </c>
       <c r="C5" s="5">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D5" s="5">
         <v>6.2</v>
       </c>
       <c r="E5" s="5">
-        <v>27.368</v>
+        <v>27.367999999999999</v>
       </c>
       <c r="F5" s="5">
-        <v>15.408</v>
+        <v>15.407999999999999</v>
       </c>
       <c r="G5" s="4">
         <v>12</v>
@@ -29321,7 +29144,7 @@
         <v>4.8</v>
       </c>
       <c r="E6" s="5">
-        <v>17.889</v>
+        <v>17.888999999999999</v>
       </c>
       <c r="F6" s="5">
         <v>8.85</v>
@@ -29350,7 +29173,7 @@
         <v>12.805</v>
       </c>
       <c r="F7" s="5">
-        <v>2.015</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
@@ -29373,7 +29196,7 @@
         <v>6.6</v>
       </c>
       <c r="E8" s="5">
-        <v>34.196</v>
+        <v>34.195999999999998</v>
       </c>
       <c r="F8" s="5">
         <v>1.609</v>
@@ -29399,7 +29222,7 @@
         <v>3.8</v>
       </c>
       <c r="E9" s="5">
-        <v>30.598</v>
+        <v>30.597999999999999</v>
       </c>
       <c r="F9" s="5">
         <v>1.014</v>
@@ -29451,10 +29274,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>23.373</v>
+        <v>23.373000000000001</v>
       </c>
       <c r="F11" s="5">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -29480,7 +29303,7 @@
         <v>30.753</v>
       </c>
       <c r="F12" s="5">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -29494,7 +29317,7 @@
         <v>691</v>
       </c>
       <c r="B13" s="5">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C13" s="5">
         <v>6.6</v>
@@ -29503,10 +29326,10 @@
         <v>6.5</v>
       </c>
       <c r="E13" s="5">
-        <v>28.515</v>
+        <v>28.515000000000001</v>
       </c>
       <c r="F13" s="5">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
@@ -29529,10 +29352,10 @@
         <v>7.2</v>
       </c>
       <c r="E14" s="5">
-        <v>18.418</v>
+        <v>18.417999999999999</v>
       </c>
       <c r="F14" s="5">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -29552,13 +29375,13 @@
         <v>4.7</v>
       </c>
       <c r="D15" s="5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E15" s="5">
         <v>49.16</v>
       </c>
       <c r="F15" s="5">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -29581,10 +29404,10 @@
         <v>6.4</v>
       </c>
       <c r="E16" s="5">
-        <v>21.042</v>
+        <v>21.042000000000002</v>
       </c>
       <c r="F16" s="5">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -29607,10 +29430,10 @@
         <v>3.6</v>
       </c>
       <c r="E17" s="5">
-        <v>21.155</v>
+        <v>21.155000000000001</v>
       </c>
       <c r="F17" s="5">
-        <v>4.219</v>
+        <v>4.2190000000000003</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -29633,10 +29456,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="5">
-        <v>15.437</v>
+        <v>15.436999999999999</v>
       </c>
       <c r="F18" s="5">
-        <v>9.353</v>
+        <v>9.3529999999999998</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -29650,7 +29473,7 @@
         <v>697</v>
       </c>
       <c r="B19" s="5">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C19" s="5">
         <v>4.7</v>
@@ -29659,7 +29482,7 @@
         <v>5.7</v>
       </c>
       <c r="E19" s="5">
-        <v>34.585</v>
+        <v>34.585000000000001</v>
       </c>
       <c r="F19" s="5">
         <v>2.851</v>
@@ -29685,7 +29508,7 @@
         <v>6.5</v>
       </c>
       <c r="E20" s="5">
-        <v>34.338</v>
+        <v>34.338000000000001</v>
       </c>
       <c r="F20" s="5">
         <v>11.224</v>
@@ -29711,10 +29534,10 @@
         <v>4.5</v>
       </c>
       <c r="E21" s="5">
-        <v>5.185</v>
+        <v>5.1849999999999996</v>
       </c>
       <c r="F21" s="5">
-        <v>0.599</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -29728,7 +29551,7 @@
         <v>700</v>
       </c>
       <c r="B22" s="5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C22" s="5">
         <v>5.7</v>
@@ -29740,7 +29563,7 @@
         <v>10.244</v>
       </c>
       <c r="F22" s="5">
-        <v>0.883</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -29763,10 +29586,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="5">
-        <v>3.313</v>
+        <v>3.3130000000000002</v>
       </c>
       <c r="F23" s="5">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -29789,7 +29612,7 @@
         <v>5.8</v>
       </c>
       <c r="E24" s="5">
-        <v>16.325</v>
+        <v>16.324999999999999</v>
       </c>
       <c r="F24" s="5">
         <v>14.132</v>
@@ -29809,16 +29632,16 @@
         <v>13.4</v>
       </c>
       <c r="C25" s="5">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D25" s="5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E25" s="5">
         <v>28.843</v>
       </c>
       <c r="F25" s="5">
-        <v>3.114</v>
+        <v>3.1139999999999999</v>
       </c>
       <c r="G25" s="4">
         <v>6</v>
@@ -29841,7 +29664,7 @@
         <v>6.2</v>
       </c>
       <c r="E26" s="5">
-        <v>19.815</v>
+        <v>19.815000000000001</v>
       </c>
       <c r="F26" s="5">
         <v>19.096</v>
@@ -29870,7 +29693,7 @@
         <v>6.34</v>
       </c>
       <c r="F27" s="5">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -29887,16 +29710,16 @@
         <v>11.4</v>
       </c>
       <c r="C28" s="5">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D28" s="5">
         <v>3.6</v>
       </c>
       <c r="E28" s="5">
-        <v>22.325</v>
+        <v>22.324999999999999</v>
       </c>
       <c r="F28" s="5">
-        <v>2.491</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -29939,16 +29762,16 @@
         <v>14.9</v>
       </c>
       <c r="C30" s="5">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D30" s="5">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E30" s="5">
-        <v>37.854</v>
+        <v>37.853999999999999</v>
       </c>
       <c r="F30" s="5">
-        <v>6.995</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -29971,10 +29794,10 @@
         <v>14.1</v>
       </c>
       <c r="E31" s="5">
-        <v>70.85</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="F31" s="5">
-        <v>10.733</v>
+        <v>10.733000000000001</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
@@ -29997,10 +29820,10 @@
         <v>6.4</v>
       </c>
       <c r="E32" s="5">
-        <v>21.057</v>
+        <v>21.056999999999999</v>
       </c>
       <c r="F32" s="5">
-        <v>0.472</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="G32" s="4">
         <v>2</v>
@@ -30017,16 +29840,16 @@
         <v>9.1</v>
       </c>
       <c r="C33" s="5">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D33" s="5">
         <v>3.7</v>
       </c>
       <c r="E33" s="5">
-        <v>30.559</v>
+        <v>30.559000000000001</v>
       </c>
       <c r="F33" s="5">
-        <v>0.583</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -30043,13 +29866,13 @@
         <v>6.8</v>
       </c>
       <c r="C34" s="5">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D34" s="5">
         <v>4.7</v>
       </c>
       <c r="E34" s="5">
-        <v>4.836</v>
+        <v>4.8360000000000003</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
@@ -30066,7 +29889,7 @@
         <v>713</v>
       </c>
       <c r="B35" s="5">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C35" s="5">
         <v>5.9</v>
@@ -30075,10 +29898,10 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="5">
-        <v>4.814</v>
+        <v>4.8140000000000001</v>
       </c>
       <c r="F35" s="5">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
@@ -30101,10 +29924,10 @@
         <v>5.2</v>
       </c>
       <c r="E36" s="5">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="F36" s="5">
-        <v>3.372</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -30127,7 +29950,7 @@
         <v>3.8</v>
       </c>
       <c r="E37" s="5">
-        <v>48.714</v>
+        <v>48.713999999999999</v>
       </c>
       <c r="F37" s="5">
         <v>2.585</v>
@@ -30144,16 +29967,16 @@
         <v>716</v>
       </c>
       <c r="B38" s="5">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C38" s="5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D38" s="5">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E38" s="5">
-        <v>33.777</v>
+        <v>33.777000000000001</v>
       </c>
       <c r="F38" s="5">
         <v>1.042</v>
@@ -30170,7 +29993,7 @@
         <v>717</v>
       </c>
       <c r="B39" s="5">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C39" s="5">
         <v>7.6</v>
@@ -30182,7 +30005,7 @@
         <v>20.971</v>
       </c>
       <c r="F39" s="5">
-        <v>1.765</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -30199,16 +30022,16 @@
         <v>7.3</v>
       </c>
       <c r="C40" s="5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D40" s="5">
         <v>8.4</v>
       </c>
       <c r="E40" s="5">
-        <v>16.553</v>
+        <v>16.553000000000001</v>
       </c>
       <c r="F40" s="5">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -30222,7 +30045,7 @@
         <v>719</v>
       </c>
       <c r="B41" s="5">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C41" s="5">
         <v>7</v>
@@ -30231,7 +30054,7 @@
         <v>3.8</v>
       </c>
       <c r="E41" s="5">
-        <v>19.536</v>
+        <v>19.536000000000001</v>
       </c>
       <c r="F41" s="5">
         <v>13.225</v>
@@ -30248,19 +30071,19 @@
         <v>720</v>
       </c>
       <c r="B42" s="5">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C42" s="5">
         <v>6.1</v>
       </c>
       <c r="D42" s="5">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E42" s="5">
-        <v>49.101</v>
+        <v>49.100999999999999</v>
       </c>
       <c r="F42" s="5">
-        <v>6.435</v>
+        <v>6.4349999999999996</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -30286,7 +30109,7 @@
         <v>30.669</v>
       </c>
       <c r="F43" s="5">
-        <v>22.135</v>
+        <v>22.135000000000002</v>
       </c>
       <c r="G43" s="4">
         <v>3</v>
@@ -30303,7 +30126,7 @@
         <v>12.1</v>
       </c>
       <c r="C44" s="5">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D44" s="5">
         <v>6.1</v>
@@ -30312,7 +30135,7 @@
         <v>26.689</v>
       </c>
       <c r="F44" s="5">
-        <v>18.755</v>
+        <v>18.754999999999999</v>
       </c>
       <c r="G44" s="4">
         <v>7</v>
@@ -30335,10 +30158,10 @@
         <v>5.6</v>
       </c>
       <c r="E45" s="5">
-        <v>22.205</v>
+        <v>22.204999999999998</v>
       </c>
       <c r="F45" s="5">
-        <v>7.395</v>
+        <v>7.3949999999999996</v>
       </c>
       <c r="G45" s="4">
         <v>2</v>
@@ -30358,13 +30181,13 @@
         <v>6.3</v>
       </c>
       <c r="D46" s="5">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E46" s="5">
-        <v>9.178</v>
+        <v>9.1780000000000008</v>
       </c>
       <c r="F46" s="5">
-        <v>3.872</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -30387,7 +30210,7 @@
         <v>3.2</v>
       </c>
       <c r="E47" s="5">
-        <v>43.518</v>
+        <v>43.518000000000001</v>
       </c>
       <c r="F47" s="5">
         <v>14.714</v>
@@ -30413,10 +30236,10 @@
         <v>2.5</v>
       </c>
       <c r="E48" s="5">
-        <v>8.987</v>
+        <v>8.9870000000000001</v>
       </c>
       <c r="F48" s="5">
-        <v>4.305</v>
+        <v>4.3049999999999997</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
@@ -30436,13 +30259,13 @@
         <v>11.3</v>
       </c>
       <c r="D49" s="5">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E49" s="5">
-        <v>26.296</v>
+        <v>26.295999999999999</v>
       </c>
       <c r="F49" s="5">
-        <v>16.303</v>
+        <v>16.303000000000001</v>
       </c>
       <c r="G49" s="4">
         <v>2</v>
@@ -30456,7 +30279,7 @@
         <v>728</v>
       </c>
       <c r="B50" s="5">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C50" s="5">
         <v>6.8</v>
@@ -30465,7 +30288,7 @@
         <v>3.4</v>
       </c>
       <c r="E50" s="5">
-        <v>8.062</v>
+        <v>8.0619999999999994</v>
       </c>
       <c r="F50" s="5">
         <v>4.03</v>
@@ -30494,7 +30317,7 @@
         <v>71.28</v>
       </c>
       <c r="F51" s="5">
-        <v>4.293</v>
+        <v>4.2930000000000001</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -30511,7 +30334,7 @@
         <v>15.5</v>
       </c>
       <c r="C52" s="5">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D52" s="5">
         <v>4.7</v>
@@ -30537,16 +30360,16 @@
         <v>12.2</v>
       </c>
       <c r="C53" s="5">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="5">
-        <v>26.117</v>
+        <v>26.117000000000001</v>
       </c>
       <c r="F53" s="5">
-        <v>3.227</v>
+        <v>3.2269999999999999</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
@@ -30569,10 +30392,10 @@
         <v>2.1</v>
       </c>
       <c r="E54" s="5">
-        <v>19.185</v>
+        <v>19.184999999999999</v>
       </c>
       <c r="F54" s="5">
-        <v>6.221</v>
+        <v>6.2210000000000001</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
@@ -30589,7 +30412,7 @@
         <v>8.9</v>
       </c>
       <c r="C55" s="5">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D55" s="5">
         <v>1.2</v>
@@ -30598,7 +30421,7 @@
         <v>29.581</v>
       </c>
       <c r="F55" s="5">
-        <v>6.353</v>
+        <v>6.3529999999999998</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
@@ -30621,7 +30444,7 @@
         <v>7.3</v>
       </c>
       <c r="E56" s="5">
-        <v>17.684</v>
+        <v>17.684000000000001</v>
       </c>
       <c r="F56" s="5">
         <v>2.774</v>
@@ -30647,7 +30470,7 @@
         <v>6.2</v>
       </c>
       <c r="E57" s="5">
-        <v>21.728</v>
+        <v>21.728000000000002</v>
       </c>
       <c r="F57" s="5">
         <v>6.18</v>
@@ -30673,7 +30496,7 @@
         <v>4.3</v>
       </c>
       <c r="E58" s="5">
-        <v>27.319</v>
+        <v>27.318999999999999</v>
       </c>
       <c r="F58" s="5">
         <v>0.39</v>
@@ -30693,16 +30516,16 @@
         <v>10.3</v>
       </c>
       <c r="C59" s="5">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D59" s="5">
         <v>5.9</v>
       </c>
       <c r="E59" s="5">
-        <v>20.534</v>
+        <v>20.533999999999999</v>
       </c>
       <c r="F59" s="5">
-        <v>3.124</v>
+        <v>3.1240000000000001</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -30716,7 +30539,7 @@
         <v>738</v>
       </c>
       <c r="B60" s="5">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C60" s="5">
         <v>5.9</v>
@@ -30725,7 +30548,7 @@
         <v>6.9</v>
       </c>
       <c r="E60" s="5">
-        <v>20.496</v>
+        <v>20.495999999999999</v>
       </c>
       <c r="F60" s="5">
         <v>4.07</v>
@@ -30754,7 +30577,7 @@
         <v>32.68</v>
       </c>
       <c r="F61" s="5">
-        <v>22.435</v>
+        <v>22.434999999999999</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
@@ -30780,7 +30603,7 @@
         <v>30.27</v>
       </c>
       <c r="F62" s="5">
-        <v>5.624</v>
+        <v>5.6239999999999997</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -30829,10 +30652,10 @@
         <v>6.9</v>
       </c>
       <c r="E64" s="5">
-        <v>10.729</v>
+        <v>10.728999999999999</v>
       </c>
       <c r="F64" s="5">
-        <v>0.638</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -30855,10 +30678,10 @@
         <v>5.4</v>
       </c>
       <c r="E65" s="5">
-        <v>16.69</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="F65" s="5">
-        <v>4.981</v>
+        <v>4.9809999999999999</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -30878,10 +30701,10 @@
         <v>7.6</v>
       </c>
       <c r="D66" s="5">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E66" s="5">
-        <v>22.661</v>
+        <v>22.661000000000001</v>
       </c>
       <c r="F66" s="5">
         <v>13.25</v>
@@ -30924,7 +30747,7 @@
         <v>746</v>
       </c>
       <c r="B68" s="5">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C68" s="5">
         <v>7.3</v>
@@ -30933,10 +30756,10 @@
         <v>6.7</v>
       </c>
       <c r="E68" s="5">
-        <v>26.464</v>
+        <v>26.463999999999999</v>
       </c>
       <c r="F68" s="5">
-        <v>11.735</v>
+        <v>11.734999999999999</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
@@ -30950,7 +30773,7 @@
         <v>747</v>
       </c>
       <c r="B69" s="5">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C69" s="5">
         <v>6.9</v>
@@ -30959,10 +30782,10 @@
         <v>6.4</v>
       </c>
       <c r="E69" s="5">
-        <v>12.438</v>
+        <v>12.438000000000001</v>
       </c>
       <c r="F69" s="5">
-        <v>2.971</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
@@ -30976,7 +30799,7 @@
         <v>748</v>
       </c>
       <c r="B70" s="5">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C70" s="5">
         <v>5.3</v>
@@ -30988,7 +30811,7 @@
         <v>15.08</v>
       </c>
       <c r="F70" s="5">
-        <v>0.891</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -31008,13 +30831,13 @@
         <v>5.7</v>
       </c>
       <c r="D71" s="5">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E71" s="5">
-        <v>16.44</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="F71" s="5">
-        <v>4.792</v>
+        <v>4.7919999999999998</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -31025,31 +30848,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="28.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="112.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="112.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>750</v>
       </c>
@@ -31063,7 +30883,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>754</v>
       </c>
@@ -31077,7 +30897,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:4">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>754</v>
       </c>
@@ -31091,7 +30911,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:4">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>754</v>
       </c>
@@ -31105,7 +30925,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:4">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>754</v>
       </c>
@@ -31119,7 +30939,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:4">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>754</v>
       </c>
@@ -31133,7 +30953,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:4">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>754</v>
       </c>
@@ -31147,7 +30967,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:4">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>754</v>
       </c>
@@ -31161,7 +30981,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:4">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>754</v>
       </c>
@@ -31175,7 +30995,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:4">
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>754</v>
       </c>
@@ -31189,7 +31009,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:4">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>754</v>
       </c>
@@ -31203,7 +31023,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:4">
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>754</v>
       </c>
@@ -31217,7 +31037,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:4">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>754</v>
       </c>
@@ -31231,7 +31051,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:4">
+    <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>754</v>
       </c>
@@ -31245,7 +31065,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:4">
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>754</v>
       </c>
@@ -31259,7 +31079,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:4">
+    <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>754</v>
       </c>
@@ -31273,7 +31093,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:4">
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>754</v>
       </c>
@@ -31287,7 +31107,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:4">
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>754</v>
       </c>
@@ -31301,7 +31121,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:4">
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>754</v>
       </c>
@@ -31315,7 +31135,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:4">
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>754</v>
       </c>
@@ -31329,7 +31149,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:4">
+    <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="1" t="s">
         <v>754</v>
       </c>
@@ -31343,7 +31163,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:4">
+    <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="1" t="s">
         <v>754</v>
       </c>
@@ -31357,7 +31177,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:4">
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="1" t="s">
         <v>754</v>
       </c>
@@ -31371,7 +31191,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:4">
+    <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="1" t="s">
         <v>754</v>
       </c>
@@ -31385,7 +31205,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:4">
+    <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="1" t="s">
         <v>754</v>
       </c>
@@ -31399,7 +31219,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:4">
+    <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="1" t="s">
         <v>754</v>
       </c>
@@ -31413,7 +31233,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:4">
+    <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="1" t="s">
         <v>754</v>
       </c>
@@ -31427,7 +31247,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:4">
+    <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="1" t="s">
         <v>754</v>
       </c>
@@ -31441,7 +31261,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:4">
+    <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>754</v>
       </c>
@@ -31455,7 +31275,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:4">
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="1" t="s">
         <v>754</v>
       </c>
@@ -31469,7 +31289,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:4">
+    <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="1" t="s">
         <v>754</v>
       </c>
@@ -31483,7 +31303,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:4">
+    <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="1" t="s">
         <v>754</v>
       </c>
@@ -31497,7 +31317,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:4">
+    <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="1" t="s">
         <v>754</v>
       </c>
@@ -31511,7 +31331,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:4">
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="1" t="s">
         <v>754</v>
       </c>
@@ -31525,7 +31345,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:4">
+    <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="1" t="s">
         <v>754</v>
       </c>
@@ -31539,7 +31359,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:4">
+    <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>754</v>
       </c>
@@ -31553,7 +31373,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:4">
+    <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="1" t="s">
         <v>754</v>
       </c>
@@ -31567,7 +31387,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:4">
+    <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="1" t="s">
         <v>754</v>
       </c>
@@ -31581,7 +31401,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:4">
+    <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="1" t="s">
         <v>754</v>
       </c>
@@ -31595,7 +31415,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:4">
+    <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="1" t="s">
         <v>754</v>
       </c>
@@ -31609,7 +31429,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:4">
+    <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>754</v>
       </c>
@@ -31623,7 +31443,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="1:4">
+    <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="1" t="s">
         <v>754</v>
       </c>
@@ -31637,7 +31457,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:4">
+    <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="1" t="s">
         <v>754</v>
       </c>
@@ -31651,7 +31471,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:4">
+    <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="1" t="s">
         <v>754</v>
       </c>
@@ -31665,7 +31485,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:4">
+    <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="1" t="s">
         <v>754</v>
       </c>
@@ -31679,7 +31499,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:4">
+    <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="1" t="s">
         <v>754</v>
       </c>
@@ -31693,7 +31513,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="1:4">
+    <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="1" t="s">
         <v>754</v>
       </c>
@@ -31707,7 +31527,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:4">
+    <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="1" t="s">
         <v>754</v>
       </c>
@@ -31721,7 +31541,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="1:4">
+    <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="1" t="s">
         <v>754</v>
       </c>
@@ -31735,7 +31555,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="1:4">
+    <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="1" t="s">
         <v>754</v>
       </c>
@@ -31749,7 +31569,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="1:4">
+    <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="1" t="s">
         <v>754</v>
       </c>
@@ -31763,7 +31583,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="1:4">
+    <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="1" t="s">
         <v>754</v>
       </c>
@@ -31777,7 +31597,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="1:4">
+    <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="1" t="s">
         <v>754</v>
       </c>
@@ -31791,7 +31611,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="1:4">
+    <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="1" t="s">
         <v>754</v>
       </c>
@@ -31805,7 +31625,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="1:4">
+    <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="1" t="s">
         <v>754</v>
       </c>
@@ -31819,7 +31639,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="1:4">
+    <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="1" t="s">
         <v>754</v>
       </c>
@@ -31833,7 +31653,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="1:4">
+    <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="1" t="s">
         <v>754</v>
       </c>
@@ -31847,7 +31667,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="1:4">
+    <row r="58" spans="1:4" ht="15.75">
       <c r="A58" s="1" t="s">
         <v>754</v>
       </c>
@@ -31861,7 +31681,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="1:4">
+    <row r="59" spans="1:4" ht="15.75">
       <c r="A59" s="1" t="s">
         <v>754</v>
       </c>
@@ -31875,7 +31695,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="1:4">
+    <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="1" t="s">
         <v>754</v>
       </c>
@@ -31889,7 +31709,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="1:4">
+    <row r="61" spans="1:4" ht="15.75">
       <c r="A61" s="1" t="s">
         <v>754</v>
       </c>
@@ -31903,7 +31723,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="1:4">
+    <row r="62" spans="1:4" ht="15.75">
       <c r="A62" s="1" t="s">
         <v>754</v>
       </c>
@@ -31917,7 +31737,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="1:4">
+    <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="1" t="s">
         <v>754</v>
       </c>
@@ -31931,7 +31751,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="1:4">
+    <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="1" t="s">
         <v>754</v>
       </c>
@@ -31945,7 +31765,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="1:4">
+    <row r="65" spans="1:4" ht="15.75">
       <c r="A65" s="1" t="s">
         <v>754</v>
       </c>
@@ -31959,7 +31779,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="1:4">
+    <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="1" t="s">
         <v>754</v>
       </c>
@@ -31973,7 +31793,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:4">
+    <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="1" t="s">
         <v>754</v>
       </c>
@@ -31987,7 +31807,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="68" ht="15.6" spans="1:4">
+    <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>754</v>
       </c>
@@ -32001,7 +31821,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="1:4">
+    <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="1" t="s">
         <v>754</v>
       </c>
@@ -32015,7 +31835,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="1:4">
+    <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="1" t="s">
         <v>812</v>
       </c>
@@ -32029,7 +31849,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="1:4">
+    <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="1" t="s">
         <v>812</v>
       </c>
@@ -32043,7 +31863,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="1:4">
+    <row r="72" spans="1:4" ht="15.75">
       <c r="A72" s="1" t="s">
         <v>812</v>
       </c>
@@ -32057,7 +31877,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="1:4">
+    <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>812</v>
       </c>
@@ -32071,7 +31891,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="1:4">
+    <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="1" t="s">
         <v>812</v>
       </c>
@@ -32085,7 +31905,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="1:4">
+    <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="1" t="s">
         <v>812</v>
       </c>
@@ -32099,7 +31919,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="1:4">
+    <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="1" t="s">
         <v>812</v>
       </c>
@@ -32113,7 +31933,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="77" ht="15.6" spans="1:4">
+    <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="1" t="s">
         <v>812</v>
       </c>
@@ -32127,7 +31947,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="1:4">
+    <row r="78" spans="1:4" ht="15.75">
       <c r="A78" s="1" t="s">
         <v>812</v>
       </c>
@@ -32141,7 +31961,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="79" ht="15.6" spans="1:4">
+    <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="1" t="s">
         <v>812</v>
       </c>
@@ -32155,7 +31975,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="80" ht="15.6" spans="1:4">
+    <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="1" t="s">
         <v>812</v>
       </c>
@@ -32169,7 +31989,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="81" ht="15.6" spans="1:4">
+    <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="1" t="s">
         <v>812</v>
       </c>
@@ -32183,7 +32003,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="82" ht="15.6" spans="1:4">
+    <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="1" t="s">
         <v>812</v>
       </c>
@@ -32197,7 +32017,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="83" ht="15.6" spans="1:4">
+    <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="1" t="s">
         <v>812</v>
       </c>
@@ -32211,7 +32031,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="84" ht="15.6" spans="1:4">
+    <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="1" t="s">
         <v>812</v>
       </c>
@@ -32225,7 +32045,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="85" ht="15.6" spans="1:4">
+    <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="1" t="s">
         <v>829</v>
       </c>
@@ -32239,7 +32059,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="86" ht="15.6" spans="1:4">
+    <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="1" t="s">
         <v>829</v>
       </c>
@@ -32253,7 +32073,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="87" ht="15.6" spans="1:4">
+    <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="1" t="s">
         <v>829</v>
       </c>
@@ -32267,7 +32087,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="88" ht="15.6" spans="1:4">
+    <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="1" t="s">
         <v>829</v>
       </c>
@@ -32281,7 +32101,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="89" ht="15.6" spans="1:4">
+    <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="1" t="s">
         <v>829</v>
       </c>
@@ -32295,7 +32115,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="90" ht="15.6" spans="1:4">
+    <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="1" t="s">
         <v>829</v>
       </c>
@@ -32309,7 +32129,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="91" ht="15.6" spans="1:4">
+    <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="1" t="s">
         <v>829</v>
       </c>
@@ -32323,7 +32143,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="92" ht="15.6" spans="1:4">
+    <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="1" t="s">
         <v>829</v>
       </c>
@@ -32337,7 +32157,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="93" ht="15.6" spans="1:4">
+    <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="1" t="s">
         <v>829</v>
       </c>
@@ -32351,7 +32171,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="94" ht="15.6" spans="1:4">
+    <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="1" t="s">
         <v>829</v>
       </c>
@@ -32365,7 +32185,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="95" ht="15.6" spans="1:4">
+    <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="1" t="s">
         <v>829</v>
       </c>
@@ -32379,7 +32199,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="96" ht="15.6" spans="1:4">
+    <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="1" t="s">
         <v>829</v>
       </c>
@@ -32393,7 +32213,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="97" ht="15.6" spans="1:4">
+    <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="1" t="s">
         <v>829</v>
       </c>
@@ -32407,7 +32227,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="98" ht="15.6" spans="1:4">
+    <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="1" t="s">
         <v>829</v>
       </c>
@@ -32421,7 +32241,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="99" ht="15.6" spans="1:4">
+    <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="1" t="s">
         <v>829</v>
       </c>
@@ -32435,7 +32255,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="100" ht="15.6" spans="1:4">
+    <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>829</v>
       </c>
@@ -32449,7 +32269,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="1:4">
+    <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="1" t="s">
         <v>829</v>
       </c>
@@ -32463,7 +32283,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="102" ht="15.6" spans="1:4">
+    <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="1" t="s">
         <v>829</v>
       </c>
@@ -32477,7 +32297,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="103" ht="15.6" spans="1:4">
+    <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="1" t="s">
         <v>829</v>
       </c>
@@ -32491,7 +32311,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="104" ht="15.6" spans="1:4">
+    <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="1" t="s">
         <v>829</v>
       </c>
@@ -32505,7 +32325,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="105" ht="15.6" spans="1:4">
+    <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>829</v>
       </c>
@@ -32519,7 +32339,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="106" ht="15.6" spans="1:4">
+    <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="1" t="s">
         <v>829</v>
       </c>
@@ -32533,7 +32353,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="107" ht="15.6" spans="1:4">
+    <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="1" t="s">
         <v>829</v>
       </c>
@@ -32547,7 +32367,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="108" ht="15.6" spans="1:4">
+    <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="1" t="s">
         <v>829</v>
       </c>
@@ -32561,7 +32381,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="109" ht="15.6" spans="1:4">
+    <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="1" t="s">
         <v>829</v>
       </c>
@@ -32575,7 +32395,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="110" ht="15.6" spans="1:4">
+    <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="1" t="s">
         <v>829</v>
       </c>
@@ -32589,7 +32409,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="111" ht="15.6" spans="1:4">
+    <row r="111" spans="1:4" ht="15.75">
       <c r="A111" s="1" t="s">
         <v>829</v>
       </c>
@@ -32603,7 +32423,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="112" ht="15.6" spans="1:4">
+    <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="1" t="s">
         <v>829</v>
       </c>
@@ -32617,7 +32437,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="113" ht="15.6" spans="1:4">
+    <row r="113" spans="1:4" ht="15.75">
       <c r="A113" s="1" t="s">
         <v>829</v>
       </c>
@@ -32631,7 +32451,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="114" ht="15.6" spans="1:4">
+    <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="1" t="s">
         <v>829</v>
       </c>
@@ -32645,7 +32465,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="115" ht="15.6" spans="1:4">
+    <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="1" t="s">
         <v>829</v>
       </c>
@@ -32659,7 +32479,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="116" ht="15.6" spans="1:4">
+    <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="1" t="s">
         <v>829</v>
       </c>
@@ -32673,7 +32493,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="117" ht="15.6" spans="1:4">
+    <row r="117" spans="1:4" ht="15.75">
       <c r="A117" s="1" t="s">
         <v>829</v>
       </c>
@@ -32687,7 +32507,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="118" ht="15.6" spans="1:4">
+    <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="1" t="s">
         <v>829</v>
       </c>
@@ -32701,7 +32521,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="119" ht="15.6" spans="1:4">
+    <row r="119" spans="1:4" ht="15.75">
       <c r="A119" s="1" t="s">
         <v>829</v>
       </c>
@@ -32715,7 +32535,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="120" ht="15.6" spans="1:4">
+    <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="1" t="s">
         <v>829</v>
       </c>
@@ -32729,7 +32549,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="121" ht="15.6" spans="1:4">
+    <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="1" t="s">
         <v>829</v>
       </c>
@@ -32743,7 +32563,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="122" ht="15.6" spans="1:4">
+    <row r="122" spans="1:4" ht="15.75">
       <c r="A122" s="1" t="s">
         <v>829</v>
       </c>
@@ -32757,7 +32577,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="123" ht="15.6" spans="1:4">
+    <row r="123" spans="1:4" ht="15.75">
       <c r="A123" s="1" t="s">
         <v>829</v>
       </c>
@@ -32771,7 +32591,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="124" ht="15.6" spans="1:4">
+    <row r="124" spans="1:4" ht="15.75">
       <c r="A124" s="1" t="s">
         <v>829</v>
       </c>
@@ -32785,7 +32605,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="125" ht="15.6" spans="1:4">
+    <row r="125" spans="1:4" ht="15.75">
       <c r="A125" s="1" t="s">
         <v>829</v>
       </c>
@@ -32799,7 +32619,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="126" ht="15.6" spans="1:4">
+    <row r="126" spans="1:4" ht="15.75">
       <c r="A126" s="1" t="s">
         <v>829</v>
       </c>
@@ -32813,7 +32633,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="127" ht="15.6" spans="1:4">
+    <row r="127" spans="1:4" ht="15.75">
       <c r="A127" s="1" t="s">
         <v>829</v>
       </c>
@@ -32827,7 +32647,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="128" ht="15.6" spans="1:4">
+    <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="1" t="s">
         <v>829</v>
       </c>
@@ -32841,7 +32661,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="129" ht="15.6" spans="1:4">
+    <row r="129" spans="1:4" ht="15.75">
       <c r="A129" s="1" t="s">
         <v>829</v>
       </c>
@@ -32855,7 +32675,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="130" ht="15.6" spans="1:4">
+    <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="1" t="s">
         <v>829</v>
       </c>
@@ -32869,7 +32689,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="131" ht="15.6" spans="1:4">
+    <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="1" t="s">
         <v>829</v>
       </c>
@@ -32883,7 +32703,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="132" ht="15.6" spans="1:4">
+    <row r="132" spans="1:4" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>829</v>
       </c>
@@ -32897,7 +32717,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="133" ht="15.6" spans="1:4">
+    <row r="133" spans="1:4" ht="15.75">
       <c r="A133" s="1" t="s">
         <v>829</v>
       </c>
@@ -32911,7 +32731,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="134" ht="15.6" spans="1:4">
+    <row r="134" spans="1:4" ht="15.75">
       <c r="A134" s="1" t="s">
         <v>829</v>
       </c>
@@ -32925,7 +32745,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="135" ht="15.6" spans="1:4">
+    <row r="135" spans="1:4" ht="15.75">
       <c r="A135" s="1" t="s">
         <v>829</v>
       </c>
@@ -32939,7 +32759,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="136" ht="15.6" spans="1:4">
+    <row r="136" spans="1:4" ht="15.75">
       <c r="A136" s="1" t="s">
         <v>829</v>
       </c>
@@ -32953,7 +32773,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="137" ht="15.6" spans="1:4">
+    <row r="137" spans="1:4" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>829</v>
       </c>
@@ -32967,7 +32787,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="138" ht="15.6" spans="1:4">
+    <row r="138" spans="1:4" ht="15.75">
       <c r="A138" s="1" t="s">
         <v>829</v>
       </c>
@@ -32981,7 +32801,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="139" ht="15.6" spans="1:4">
+    <row r="139" spans="1:4" ht="15.75">
       <c r="A139" s="1" t="s">
         <v>829</v>
       </c>
@@ -32995,7 +32815,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="140" ht="15.6" spans="1:4">
+    <row r="140" spans="1:4" ht="15.75">
       <c r="A140" s="1" t="s">
         <v>884</v>
       </c>
@@ -33009,7 +32829,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="141" ht="15.6" spans="1:4">
+    <row r="141" spans="1:4" ht="15.75">
       <c r="A141" s="1" t="s">
         <v>884</v>
       </c>
@@ -33023,7 +32843,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="142" ht="15.6" spans="1:4">
+    <row r="142" spans="1:4" ht="15.75">
       <c r="A142" s="1" t="s">
         <v>884</v>
       </c>
@@ -33037,7 +32857,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="143" ht="15.6" spans="1:4">
+    <row r="143" spans="1:4" ht="15.75">
       <c r="A143" s="1" t="s">
         <v>884</v>
       </c>
@@ -33051,7 +32871,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="144" ht="15.6" spans="1:4">
+    <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="1" t="s">
         <v>884</v>
       </c>
@@ -33065,7 +32885,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="145" ht="15.6" spans="1:4">
+    <row r="145" spans="1:4" ht="15.75">
       <c r="A145" s="1" t="s">
         <v>884</v>
       </c>
@@ -33079,7 +32899,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="146" ht="15.6" spans="1:4">
+    <row r="146" spans="1:4" ht="15.75">
       <c r="A146" s="1" t="s">
         <v>884</v>
       </c>
@@ -33093,7 +32913,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="147" ht="15.6" spans="1:4">
+    <row r="147" spans="1:4" ht="15.75">
       <c r="A147" s="1" t="s">
         <v>884</v>
       </c>
@@ -33107,7 +32927,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="148" ht="15.6" spans="1:4">
+    <row r="148" spans="1:4" ht="15.75">
       <c r="A148" s="1" t="s">
         <v>884</v>
       </c>
@@ -33121,7 +32941,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="149" ht="15.6" spans="1:4">
+    <row r="149" spans="1:4" ht="15.75">
       <c r="A149" s="1" t="s">
         <v>884</v>
       </c>
@@ -33135,7 +32955,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="150" ht="15.6" spans="1:4">
+    <row r="150" spans="1:4" ht="15.75">
       <c r="A150" s="1" t="s">
         <v>884</v>
       </c>
@@ -33149,7 +32969,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="151" ht="15.6" spans="1:4">
+    <row r="151" spans="1:4" ht="15.75">
       <c r="A151" s="1" t="s">
         <v>884</v>
       </c>
@@ -33163,7 +32983,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="152" ht="15.6" spans="1:4">
+    <row r="152" spans="1:4" ht="15.75">
       <c r="A152" s="1" t="s">
         <v>884</v>
       </c>
@@ -33177,7 +32997,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="153" ht="15.6" spans="1:4">
+    <row r="153" spans="1:4" ht="15.75">
       <c r="A153" s="1" t="s">
         <v>884</v>
       </c>
@@ -33191,7 +33011,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="154" ht="15.6" spans="1:4">
+    <row r="154" spans="1:4" ht="15.75">
       <c r="A154" s="1" t="s">
         <v>884</v>
       </c>
@@ -33205,7 +33025,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="155" ht="15.6" spans="1:4">
+    <row r="155" spans="1:4" ht="15.75">
       <c r="A155" s="1" t="s">
         <v>884</v>
       </c>
@@ -33219,7 +33039,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="156" ht="15.6" spans="1:4">
+    <row r="156" spans="1:4" ht="15.75">
       <c r="A156" s="1" t="s">
         <v>884</v>
       </c>
@@ -33233,7 +33053,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="157" ht="15.6" spans="1:4">
+    <row r="157" spans="1:4" ht="15.75">
       <c r="A157" s="1" t="s">
         <v>884</v>
       </c>
@@ -33247,7 +33067,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="158" ht="15.6" spans="1:4">
+    <row r="158" spans="1:4" ht="15.75">
       <c r="A158" s="1" t="s">
         <v>884</v>
       </c>
@@ -33261,7 +33081,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="159" ht="15.6" spans="1:4">
+    <row r="159" spans="1:4" ht="15.75">
       <c r="A159" s="1" t="s">
         <v>884</v>
       </c>
@@ -33275,7 +33095,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="160" ht="15.6" spans="1:4">
+    <row r="160" spans="1:4" ht="15.75">
       <c r="A160" s="1" t="s">
         <v>884</v>
       </c>
@@ -33289,7 +33109,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="161" ht="15.6" spans="1:4">
+    <row r="161" spans="1:4" ht="15.75">
       <c r="A161" s="1" t="s">
         <v>884</v>
       </c>
@@ -33303,7 +33123,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="162" ht="15.6" spans="1:4">
+    <row r="162" spans="1:4" ht="15.75">
       <c r="A162" s="1" t="s">
         <v>884</v>
       </c>
@@ -33317,7 +33137,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="163" ht="15.6" spans="1:4">
+    <row r="163" spans="1:4" ht="15.75">
       <c r="A163" s="1" t="s">
         <v>884</v>
       </c>
@@ -33331,7 +33151,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="164" ht="15.6" spans="1:4">
+    <row r="164" spans="1:4" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>884</v>
       </c>
@@ -33345,7 +33165,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="165" ht="15.6" spans="1:4">
+    <row r="165" spans="1:4" ht="15.75">
       <c r="A165" s="1" t="s">
         <v>884</v>
       </c>
@@ -33359,7 +33179,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="166" ht="15.6" spans="1:4">
+    <row r="166" spans="1:4" ht="15.75">
       <c r="A166" s="1" t="s">
         <v>884</v>
       </c>
@@ -33373,7 +33193,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="167" ht="15.6" spans="1:4">
+    <row r="167" spans="1:4" ht="15.75">
       <c r="A167" s="1" t="s">
         <v>884</v>
       </c>
@@ -33387,7 +33207,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="168" ht="15.6" spans="1:4">
+    <row r="168" spans="1:4" ht="15.75">
       <c r="A168" s="1" t="s">
         <v>884</v>
       </c>
@@ -33401,7 +33221,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="169" ht="15.6" spans="1:4">
+    <row r="169" spans="1:4" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>884</v>
       </c>
@@ -33415,7 +33235,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="170" ht="15.6" spans="1:4">
+    <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="1" t="s">
         <v>884</v>
       </c>
@@ -33429,7 +33249,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="171" ht="15.6" spans="1:4">
+    <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="1" t="s">
         <v>884</v>
       </c>
@@ -33443,7 +33263,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="172" ht="15.6" spans="1:4">
+    <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="1" t="s">
         <v>884</v>
       </c>
@@ -33457,7 +33277,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="173" ht="15.6" spans="1:4">
+    <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="1" t="s">
         <v>884</v>
       </c>
@@ -33471,7 +33291,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="174" ht="15.6" spans="1:4">
+    <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="1" t="s">
         <v>884</v>
       </c>
@@ -33485,7 +33305,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="175" ht="15.6" spans="1:4">
+    <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="1" t="s">
         <v>884</v>
       </c>
@@ -33499,7 +33319,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="176" ht="15.6" spans="1:4">
+    <row r="176" spans="1:4" ht="15.75">
       <c r="A176" s="1" t="s">
         <v>884</v>
       </c>
@@ -33513,7 +33333,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="177" ht="15.6" spans="1:4">
+    <row r="177" spans="1:4" ht="15.75">
       <c r="A177" s="1" t="s">
         <v>884</v>
       </c>
@@ -33527,7 +33347,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="178" ht="15.6" spans="1:4">
+    <row r="178" spans="1:4" ht="15.75">
       <c r="A178" s="1" t="s">
         <v>884</v>
       </c>
@@ -33541,7 +33361,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="179" ht="15.6" spans="1:4">
+    <row r="179" spans="1:4" ht="15.75">
       <c r="A179" s="1" t="s">
         <v>884</v>
       </c>
@@ -33555,7 +33375,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="180" ht="15.6" spans="1:4">
+    <row r="180" spans="1:4" ht="15.75">
       <c r="A180" s="1" t="s">
         <v>884</v>
       </c>
@@ -33569,7 +33389,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="181" ht="15.6" spans="1:4">
+    <row r="181" spans="1:4" ht="15.75">
       <c r="A181" s="1" t="s">
         <v>884</v>
       </c>
@@ -33583,7 +33403,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="182" ht="15.6" spans="1:4">
+    <row r="182" spans="1:4" ht="15.75">
       <c r="A182" s="1" t="s">
         <v>884</v>
       </c>
@@ -33597,7 +33417,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="183" ht="15.6" spans="1:4">
+    <row r="183" spans="1:4" ht="15.75">
       <c r="A183" s="1" t="s">
         <v>884</v>
       </c>
@@ -33611,7 +33431,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="184" ht="15.6" spans="1:4">
+    <row r="184" spans="1:4" ht="15.75">
       <c r="A184" s="1" t="s">
         <v>884</v>
       </c>
@@ -33625,7 +33445,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="185" ht="15.6" spans="1:4">
+    <row r="185" spans="1:4" ht="15.75">
       <c r="A185" s="1" t="s">
         <v>884</v>
       </c>
@@ -33639,7 +33459,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="186" ht="15.6" spans="1:4">
+    <row r="186" spans="1:4" ht="15.75">
       <c r="A186" s="1" t="s">
         <v>884</v>
       </c>
@@ -33653,7 +33473,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="187" ht="15.6" spans="1:4">
+    <row r="187" spans="1:4" ht="15.75">
       <c r="A187" s="1" t="s">
         <v>884</v>
       </c>
@@ -33667,7 +33487,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="188" ht="15.6" spans="1:4">
+    <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="1" t="s">
         <v>884</v>
       </c>
@@ -33681,7 +33501,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="189" ht="15.6" spans="1:4">
+    <row r="189" spans="1:4" ht="15.75">
       <c r="A189" s="1" t="s">
         <v>884</v>
       </c>
@@ -33695,7 +33515,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="190" ht="15.6" spans="1:4">
+    <row r="190" spans="1:4" ht="15.75">
       <c r="A190" s="1" t="s">
         <v>884</v>
       </c>
@@ -33709,7 +33529,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="191" ht="15.6" spans="1:4">
+    <row r="191" spans="1:4" ht="15.75">
       <c r="A191" s="1" t="s">
         <v>884</v>
       </c>
@@ -33723,7 +33543,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="192" ht="15.6" spans="1:4">
+    <row r="192" spans="1:4" ht="15.75">
       <c r="A192" s="1" t="s">
         <v>884</v>
       </c>
@@ -33737,7 +33557,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="193" ht="15.6" spans="1:4">
+    <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="1" t="s">
         <v>884</v>
       </c>
@@ -33751,7 +33571,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="194" ht="15.6" spans="1:4">
+    <row r="194" spans="1:4" ht="15.75">
       <c r="A194" s="1" t="s">
         <v>884</v>
       </c>
@@ -33765,7 +33585,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="195" ht="15.6" spans="1:4">
+    <row r="195" spans="1:4" ht="15.75">
       <c r="A195" s="1" t="s">
         <v>884</v>
       </c>
@@ -33779,7 +33599,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="196" ht="15.6" spans="1:4">
+    <row r="196" spans="1:4" ht="15.75">
       <c r="A196" s="1" t="s">
         <v>884</v>
       </c>
@@ -33793,7 +33613,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="197" ht="15.6" spans="1:4">
+    <row r="197" spans="1:4" ht="15.75">
       <c r="A197" s="1" t="s">
         <v>884</v>
       </c>
@@ -33807,7 +33627,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="198" ht="15.6" spans="1:4">
+    <row r="198" spans="1:4" ht="15.75">
       <c r="A198" s="1" t="s">
         <v>884</v>
       </c>
@@ -33821,7 +33641,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="199" ht="15.6" spans="1:4">
+    <row r="199" spans="1:4" ht="15.75">
       <c r="A199" s="1" t="s">
         <v>884</v>
       </c>
@@ -33835,7 +33655,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="200" ht="15.6" spans="1:4">
+    <row r="200" spans="1:4" ht="15.75">
       <c r="A200" s="1" t="s">
         <v>884</v>
       </c>
@@ -33849,7 +33669,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="201" ht="15.6" spans="1:4">
+    <row r="201" spans="1:4" ht="15.75">
       <c r="A201" s="1" t="s">
         <v>884</v>
       </c>
@@ -33863,7 +33683,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="202" ht="15.6" spans="1:4">
+    <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="1" t="s">
         <v>884</v>
       </c>
@@ -33877,7 +33697,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="203" ht="15.6" spans="1:4">
+    <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="1" t="s">
         <v>884</v>
       </c>
@@ -33891,7 +33711,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="204" ht="15.6" spans="1:4">
+    <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="1" t="s">
         <v>884</v>
       </c>
@@ -33905,7 +33725,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="205" ht="15.6" spans="1:4">
+    <row r="205" spans="1:4" ht="15.75">
       <c r="A205" s="1" t="s">
         <v>884</v>
       </c>
@@ -33919,7 +33739,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="206" ht="15.6" spans="1:4">
+    <row r="206" spans="1:4" ht="15.75">
       <c r="A206" s="1" t="s">
         <v>884</v>
       </c>
@@ -33933,7 +33753,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="207" ht="15.6" spans="1:4">
+    <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="1" t="s">
         <v>884</v>
       </c>
@@ -33947,7 +33767,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="208" ht="15.6" spans="1:4">
+    <row r="208" spans="1:4" ht="15.75">
       <c r="A208" s="1" t="s">
         <v>884</v>
       </c>
@@ -33961,7 +33781,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="209" ht="15.6" spans="1:4">
+    <row r="209" spans="1:4" ht="15.75">
       <c r="A209" s="1" t="s">
         <v>884</v>
       </c>
@@ -33975,7 +33795,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="210" ht="15.6" spans="1:4">
+    <row r="210" spans="1:4" ht="15.75">
       <c r="A210" s="1" t="s">
         <v>884</v>
       </c>
@@ -33989,7 +33809,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="211" ht="15.6" spans="1:4">
+    <row r="211" spans="1:4" ht="15.75">
       <c r="A211" s="1" t="s">
         <v>884</v>
       </c>
@@ -34003,7 +33823,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="212" ht="15.6" spans="1:4">
+    <row r="212" spans="1:4" ht="15.75">
       <c r="A212" s="1" t="s">
         <v>884</v>
       </c>
@@ -34017,7 +33837,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="213" ht="15.6" spans="1:4">
+    <row r="213" spans="1:4" ht="15.75">
       <c r="A213" s="1" t="s">
         <v>884</v>
       </c>
@@ -34031,7 +33851,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="214" ht="15.6" spans="1:4">
+    <row r="214" spans="1:4" ht="15.75">
       <c r="A214" s="1" t="s">
         <v>957</v>
       </c>
@@ -34045,7 +33865,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="215" ht="15.6" spans="1:4">
+    <row r="215" spans="1:4" ht="15.75">
       <c r="A215" s="1" t="s">
         <v>957</v>
       </c>
@@ -34059,7 +33879,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="216" ht="15.6" spans="1:4">
+    <row r="216" spans="1:4" ht="15.75">
       <c r="A216" s="1" t="s">
         <v>957</v>
       </c>
@@ -34073,7 +33893,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="217" ht="15.6" spans="1:4">
+    <row r="217" spans="1:4" ht="15.75">
       <c r="A217" s="1" t="s">
         <v>957</v>
       </c>
@@ -34087,7 +33907,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="218" ht="15.6" spans="1:4">
+    <row r="218" spans="1:4" ht="15.75">
       <c r="A218" s="1" t="s">
         <v>957</v>
       </c>
@@ -34101,7 +33921,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="219" ht="15.6" spans="1:4">
+    <row r="219" spans="1:4" ht="15.75">
       <c r="A219" s="1" t="s">
         <v>957</v>
       </c>
@@ -34115,7 +33935,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="220" ht="15.6" spans="1:4">
+    <row r="220" spans="1:4" ht="15.75">
       <c r="A220" s="1" t="s">
         <v>957</v>
       </c>
@@ -34129,7 +33949,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="221" ht="15.6" spans="1:4">
+    <row r="221" spans="1:4" ht="15.75">
       <c r="A221" s="1" t="s">
         <v>957</v>
       </c>
@@ -34143,7 +33963,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="222" ht="15.6" spans="1:4">
+    <row r="222" spans="1:4" ht="15.75">
       <c r="A222" s="1" t="s">
         <v>957</v>
       </c>
@@ -34157,7 +33977,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="223" ht="15.6" spans="1:4">
+    <row r="223" spans="1:4" ht="15.75">
       <c r="A223" s="1" t="s">
         <v>957</v>
       </c>
@@ -34171,7 +33991,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="224" ht="15.6" spans="1:4">
+    <row r="224" spans="1:4" ht="15.75">
       <c r="A224" s="1" t="s">
         <v>957</v>
       </c>
@@ -34185,7 +34005,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="225" ht="15.6" spans="1:4">
+    <row r="225" spans="1:4" ht="15.75">
       <c r="A225" s="1" t="s">
         <v>957</v>
       </c>
@@ -34199,7 +34019,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="226" ht="15.6" spans="1:4">
+    <row r="226" spans="1:4" ht="15.75">
       <c r="A226" s="1" t="s">
         <v>957</v>
       </c>
@@ -34213,7 +34033,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="227" ht="15.6" spans="1:4">
+    <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="1" t="s">
         <v>957</v>
       </c>
@@ -34227,7 +34047,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="228" ht="15.6" spans="1:4">
+    <row r="228" spans="1:4" ht="15.75">
       <c r="A228" s="1" t="s">
         <v>957</v>
       </c>
@@ -34241,7 +34061,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="229" ht="15.6" spans="1:4">
+    <row r="229" spans="1:4" ht="15.75">
       <c r="A229" s="1" t="s">
         <v>957</v>
       </c>
@@ -34255,7 +34075,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="230" ht="15.6" spans="1:4">
+    <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="1" t="s">
         <v>957</v>
       </c>
@@ -34269,7 +34089,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="231" ht="15.6" spans="1:4">
+    <row r="231" spans="1:4" ht="15.75">
       <c r="A231" s="1" t="s">
         <v>957</v>
       </c>
@@ -34283,7 +34103,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="232" ht="15.6" spans="1:4">
+    <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="1" t="s">
         <v>957</v>
       </c>
@@ -34297,7 +34117,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="233" ht="15.6" spans="1:4">
+    <row r="233" spans="1:4" ht="15.75">
       <c r="A233" s="1" t="s">
         <v>957</v>
       </c>
@@ -34311,7 +34131,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="234" ht="15.6" spans="1:4">
+    <row r="234" spans="1:4" ht="15.75">
       <c r="A234" s="1" t="s">
         <v>957</v>
       </c>
@@ -34325,7 +34145,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="235" ht="15.6" spans="1:4">
+    <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="1" t="s">
         <v>957</v>
       </c>
@@ -34339,7 +34159,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="236" ht="15.6" spans="1:4">
+    <row r="236" spans="1:4" ht="15.75">
       <c r="A236" s="1" t="s">
         <v>957</v>
       </c>
@@ -34353,7 +34173,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="237" ht="15.6" spans="1:4">
+    <row r="237" spans="1:4" ht="15.75">
       <c r="A237" s="1" t="s">
         <v>957</v>
       </c>
@@ -34367,7 +34187,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="238" ht="15.6" spans="1:4">
+    <row r="238" spans="1:4" ht="15.75">
       <c r="A238" s="1" t="s">
         <v>957</v>
       </c>
@@ -34381,7 +34201,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="239" ht="15.6" spans="1:4">
+    <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="1" t="s">
         <v>957</v>
       </c>
@@ -34395,7 +34215,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="240" ht="15.6" spans="1:4">
+    <row r="240" spans="1:4" ht="15.75">
       <c r="A240" s="1" t="s">
         <v>957</v>
       </c>
@@ -34409,7 +34229,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="241" ht="15.6" spans="1:4">
+    <row r="241" spans="1:4" ht="15.75">
       <c r="A241" s="1" t="s">
         <v>957</v>
       </c>
@@ -34423,7 +34243,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="242" ht="15.6" spans="1:4">
+    <row r="242" spans="1:4" ht="15.75">
       <c r="A242" s="1" t="s">
         <v>957</v>
       </c>
@@ -34437,7 +34257,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="243" ht="15.6" spans="1:4">
+    <row r="243" spans="1:4" ht="15.75">
       <c r="A243" s="1" t="s">
         <v>957</v>
       </c>
@@ -34451,7 +34271,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="244" ht="15.6" spans="1:4">
+    <row r="244" spans="1:4" ht="15.75">
       <c r="A244" s="1" t="s">
         <v>957</v>
       </c>
@@ -34465,7 +34285,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="245" ht="15.6" spans="1:4">
+    <row r="245" spans="1:4" ht="15.75">
       <c r="A245" s="1" t="s">
         <v>957</v>
       </c>
@@ -34479,7 +34299,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="246" ht="15.6" spans="1:4">
+    <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="1" t="s">
         <v>957</v>
       </c>
@@ -34493,7 +34313,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="247" ht="15.6" spans="1:4">
+    <row r="247" spans="1:4" ht="15.75">
       <c r="A247" s="1" t="s">
         <v>957</v>
       </c>
@@ -34507,7 +34327,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="248" ht="15.6" spans="1:4">
+    <row r="248" spans="1:4" ht="15.75">
       <c r="A248" s="1" t="s">
         <v>957</v>
       </c>
@@ -34521,7 +34341,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="249" ht="15.6" spans="1:4">
+    <row r="249" spans="1:4" ht="15.75">
       <c r="A249" s="1" t="s">
         <v>957</v>
       </c>
@@ -34535,7 +34355,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="250" ht="15.6" spans="1:4">
+    <row r="250" spans="1:4" ht="15.75">
       <c r="A250" s="1" t="s">
         <v>957</v>
       </c>
@@ -34549,7 +34369,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="251" ht="15.6" spans="1:4">
+    <row r="251" spans="1:4" ht="15.75">
       <c r="A251" s="1" t="s">
         <v>957</v>
       </c>
@@ -34563,7 +34383,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="252" ht="15.6" spans="1:4">
+    <row r="252" spans="1:4" ht="15.75">
       <c r="A252" s="1" t="s">
         <v>957</v>
       </c>
@@ -34577,7 +34397,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="253" ht="15.6" spans="1:4">
+    <row r="253" spans="1:4" ht="15.75">
       <c r="A253" s="1" t="s">
         <v>957</v>
       </c>
@@ -34591,7 +34411,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="254" ht="15.6" spans="1:4">
+    <row r="254" spans="1:4" ht="15.75">
       <c r="A254" s="1" t="s">
         <v>957</v>
       </c>
@@ -34605,7 +34425,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="255" ht="15.6" spans="1:4">
+    <row r="255" spans="1:4" ht="15.75">
       <c r="A255" s="1" t="s">
         <v>957</v>
       </c>
@@ -34619,7 +34439,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="256" ht="15.6" spans="1:4">
+    <row r="256" spans="1:4" ht="15.75">
       <c r="A256" s="1" t="s">
         <v>957</v>
       </c>
@@ -34633,7 +34453,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="257" ht="15.6" spans="1:4">
+    <row r="257" spans="1:4" ht="15.75">
       <c r="A257" s="1" t="s">
         <v>994</v>
       </c>
@@ -34647,7 +34467,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="258" ht="15.6" spans="1:4">
+    <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="1" t="s">
         <v>994</v>
       </c>
@@ -34661,7 +34481,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="259" ht="15.6" spans="1:4">
+    <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="1" t="s">
         <v>996</v>
       </c>
@@ -34675,7 +34495,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="260" ht="15.6" spans="1:4">
+    <row r="260" spans="1:4" ht="15.75">
       <c r="A260" s="1" t="s">
         <v>996</v>
       </c>
@@ -34689,7 +34509,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="261" ht="15.6" spans="1:4">
+    <row r="261" spans="1:4" ht="15.75">
       <c r="A261" s="1" t="s">
         <v>998</v>
       </c>
@@ -34703,7 +34523,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="262" ht="15.6" spans="1:4">
+    <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="1" t="s">
         <v>998</v>
       </c>
@@ -34717,7 +34537,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="263" ht="15.6" spans="1:4">
+    <row r="263" spans="1:4" ht="15.75">
       <c r="A263" s="1" t="s">
         <v>998</v>
       </c>
@@ -34731,7 +34551,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="264" ht="15.6" spans="1:4">
+    <row r="264" spans="1:4" ht="15.75">
       <c r="A264" s="1" t="s">
         <v>998</v>
       </c>
@@ -34745,7 +34565,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="265" ht="15.6" spans="1:4">
+    <row r="265" spans="1:4" ht="15.75">
       <c r="A265" s="1" t="s">
         <v>998</v>
       </c>
@@ -34759,7 +34579,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="266" ht="15.6" spans="1:4">
+    <row r="266" spans="1:4" ht="15.75">
       <c r="A266" s="1" t="s">
         <v>998</v>
       </c>
@@ -34773,7 +34593,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="267" ht="15.6" spans="1:4">
+    <row r="267" spans="1:4" ht="15.75">
       <c r="A267" s="1" t="s">
         <v>998</v>
       </c>
@@ -34787,7 +34607,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="268" ht="15.6" spans="1:4">
+    <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="1" t="s">
         <v>998</v>
       </c>
@@ -34801,7 +34621,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="269" ht="15.6" spans="1:4">
+    <row r="269" spans="1:4" ht="15.75">
       <c r="A269" s="1" t="s">
         <v>998</v>
       </c>
@@ -34815,7 +34635,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="270" ht="15.6" spans="1:4">
+    <row r="270" spans="1:4" ht="15.75">
       <c r="A270" s="1" t="s">
         <v>998</v>
       </c>
@@ -34829,7 +34649,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="271" ht="15.6" spans="1:4">
+    <row r="271" spans="1:4" ht="15.75">
       <c r="A271" s="1" t="s">
         <v>998</v>
       </c>
@@ -34843,7 +34663,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="272" ht="15.6" spans="1:4">
+    <row r="272" spans="1:4" ht="15.75">
       <c r="A272" s="1" t="s">
         <v>1011</v>
       </c>
@@ -34855,7 +34675,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="273" ht="15.6" spans="1:4">
+    <row r="273" spans="1:4" ht="15.75">
       <c r="A273" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34869,7 +34689,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="274" ht="15.6" spans="1:4">
+    <row r="274" spans="1:4" ht="15.75">
       <c r="A274" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34883,7 +34703,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="275" ht="15.6" spans="1:4">
+    <row r="275" spans="1:4" ht="15.75">
       <c r="A275" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34897,7 +34717,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="276" ht="15.6" spans="1:4">
+    <row r="276" spans="1:4" ht="15.75">
       <c r="A276" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34911,7 +34731,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="277" ht="15.6" spans="1:4">
+    <row r="277" spans="1:4" ht="15.75">
       <c r="A277" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34925,7 +34745,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="278" ht="15.6" spans="1:4">
+    <row r="278" spans="1:4" ht="15.75">
       <c r="A278" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34939,7 +34759,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="279" ht="15.6" spans="1:4">
+    <row r="279" spans="1:4" ht="15.75">
       <c r="A279" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34953,7 +34773,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="280" ht="15.6" spans="1:4">
+    <row r="280" spans="1:4" ht="15.75">
       <c r="A280" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34967,7 +34787,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="281" ht="15.6" spans="1:4">
+    <row r="281" spans="1:4" ht="15.75">
       <c r="A281" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34981,7 +34801,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="282" ht="15.6" spans="1:4">
+    <row r="282" spans="1:4" ht="15.75">
       <c r="A282" s="1" t="s">
         <v>1013</v>
       </c>
@@ -34995,7 +34815,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="283" ht="15.6" spans="1:4">
+    <row r="283" spans="1:4" ht="15.75">
       <c r="A283" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35009,7 +34829,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="284" ht="15.6" spans="1:4">
+    <row r="284" spans="1:4" ht="15.75">
       <c r="A284" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35023,7 +34843,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="285" ht="15.6" spans="1:4">
+    <row r="285" spans="1:4" ht="15.75">
       <c r="A285" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35037,7 +34857,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="286" ht="15.6" spans="1:4">
+    <row r="286" spans="1:4" ht="15.75">
       <c r="A286" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35051,7 +34871,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="287" ht="15.6" spans="1:4">
+    <row r="287" spans="1:4" ht="15.75">
       <c r="A287" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35065,7 +34885,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="288" ht="15.6" spans="1:4">
+    <row r="288" spans="1:4" ht="15.75">
       <c r="A288" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35079,7 +34899,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="289" ht="15.6" spans="1:4">
+    <row r="289" spans="1:4" ht="15.75">
       <c r="A289" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35093,7 +34913,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="290" ht="15.6" spans="1:4">
+    <row r="290" spans="1:4" ht="15.75">
       <c r="A290" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35107,7 +34927,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="291" ht="15.6" spans="1:4">
+    <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35121,7 +34941,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="292" ht="15.6" spans="1:4">
+    <row r="292" spans="1:4" ht="15.75">
       <c r="A292" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35135,7 +34955,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="293" ht="15.6" spans="1:4">
+    <row r="293" spans="1:4" ht="15.75">
       <c r="A293" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35149,7 +34969,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="294" ht="15.6" spans="1:4">
+    <row r="294" spans="1:4" ht="15.75">
       <c r="A294" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35163,7 +34983,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="295" ht="15.6" spans="1:4">
+    <row r="295" spans="1:4" ht="15.75">
       <c r="A295" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35177,7 +34997,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="296" ht="15.6" spans="1:4">
+    <row r="296" spans="1:4" ht="15.75">
       <c r="A296" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35191,7 +35011,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="297" ht="15.6" spans="1:4">
+    <row r="297" spans="1:4" ht="15.75">
       <c r="A297" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35205,7 +35025,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="298" ht="15.6" spans="1:4">
+    <row r="298" spans="1:4" ht="15.75">
       <c r="A298" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35219,7 +35039,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="299" ht="15.6" spans="1:4">
+    <row r="299" spans="1:4" ht="15.75">
       <c r="A299" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35233,7 +35053,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="300" ht="15.6" spans="1:4">
+    <row r="300" spans="1:4" ht="15.75">
       <c r="A300" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35247,7 +35067,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="301" ht="15.6" spans="1:4">
+    <row r="301" spans="1:4" ht="15.75">
       <c r="A301" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35261,7 +35081,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="302" ht="15.6" spans="1:4">
+    <row r="302" spans="1:4" ht="15.75">
       <c r="A302" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35275,7 +35095,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="303" ht="15.6" spans="1:4">
+    <row r="303" spans="1:4" ht="15.75">
       <c r="A303" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35289,7 +35109,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="304" ht="15.6" spans="1:4">
+    <row r="304" spans="1:4" ht="15.75">
       <c r="A304" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35303,7 +35123,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="305" ht="15.6" spans="1:4">
+    <row r="305" spans="1:4" ht="15.75">
       <c r="A305" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35317,7 +35137,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="306" ht="15.6" spans="1:4">
+    <row r="306" spans="1:4" ht="15.75">
       <c r="A306" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35333,6 +35153,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>